--- a/ifs-auth-service/ifs-sp-service/src/main/docker/files/files/SIPF_financial_costing.xlsx
+++ b/ifs-auth-service/ifs-sp-service/src/main/docker/files/files/SIPF_financial_costing.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barry.Shaw\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hefce-trimstore\offlinefs\ayressa\My Documents\aa Sacha's AP desktop - active\01 - SIPF\Costing forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9330" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="10410"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="6" r:id="rId1"/>
@@ -27,10 +27,10 @@
     <definedName name="FundStatus">Validations!$A$3:$A$8</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">Guidance!$C$15</definedName>
     <definedName name="OLE_LINK27" localSheetId="2">'2. Capital'!$A$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2. Capital'!$A$1:$G$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'7. Payment profile'!$A$1:$D$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2. Capital'!$A$1:$H$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'7. Payment profile'!$A$1:$D$47</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="175">
   <si>
     <t>Totals</t>
   </si>
@@ -713,11 +713,14 @@
   <si>
     <t>UKRI will pay the seedcorn funding ofup to £50,000 in two instalments, in arrears to both research organisations and businesses who are leading the project. Payments to businesses will follow Innovate UK's standard practise of payment on submission of a claim. This will be against your net eligible costs incurred and paid over the duration of the bid development.</t>
   </si>
+  <si>
+    <t>2023-24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
@@ -968,7 +971,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="132">
+  <borders count="133">
     <border>
       <left/>
       <right/>
@@ -1581,21 +1584,6 @@
       </left>
       <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -2525,21 +2513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2675,12 +2648,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="466">
+  <cellXfs count="463">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2784,7 +2792,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2796,12 +2804,12 @@
     <xf numFmtId="168" fontId="10" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="10" fillId="4" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="168" fontId="10" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="4" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="10" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2811,7 +2819,7 @@
     <xf numFmtId="168" fontId="8" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="4" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2821,21 +2829,24 @@
     <xf numFmtId="168" fontId="10" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="4" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="10" fillId="4" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="10" fillId="4" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="10" fillId="4" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="20" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="20" fillId="4" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="8" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="10" fillId="4" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2845,16 +2856,13 @@
     <xf numFmtId="167" fontId="10" fillId="4" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="17" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="10" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2872,10 +2880,10 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="4" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2913,64 +2921,64 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="82" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="44" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="83" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="44" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="57" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="56" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="10" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="62" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="5" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2979,7 +2987,7 @@
     <xf numFmtId="167" fontId="19" fillId="5" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="5" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="5" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3009,25 +3017,25 @@
     <xf numFmtId="167" fontId="9" fillId="5" borderId="46" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="5" borderId="50" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="49" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="4" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="4" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3045,21 +3053,21 @@
     <xf numFmtId="167" fontId="19" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="10" fillId="4" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="10" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -3099,7 +3107,7 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="5" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="5" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="21" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3108,45 +3116,45 @@
     <xf numFmtId="168" fontId="22" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="5" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="5" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="4" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="20" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="76" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="75" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="98" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="97" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="98" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="8" fillId="4" borderId="99" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="100" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="93" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="8" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3156,7 +3164,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="8" fillId="6" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3166,16 +3174,16 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="8" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="5" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="5" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3184,22 +3192,22 @@
     <xf numFmtId="168" fontId="22" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3277,16 +3285,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="6" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="110" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="109" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="27" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3294,9 +3302,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="27" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="27" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="27" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="27" fillId="5" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3312,32 +3320,32 @@
     <xf numFmtId="168" fontId="27" fillId="5" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="27" fillId="6" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="27" fillId="5" borderId="99" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="27" fillId="5" borderId="98" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="4" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="26" fillId="4" borderId="99" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="26" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="26" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="26" fillId="5" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="5" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="26" fillId="4" borderId="100" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="26" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="26" fillId="6" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="26" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="5" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="31" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="31" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="31" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="30" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3349,36 +3357,36 @@
     <xf numFmtId="168" fontId="26" fillId="4" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="8" fillId="5" borderId="97" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="8" fillId="5" borderId="96" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="97" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="6" borderId="115" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="12" fillId="2" borderId="98" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="93" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="116" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="99" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="6" borderId="117" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="12" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="116" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="115" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -3395,10 +3403,10 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="6" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="6" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="22" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3408,19 +3416,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3524,7 +3532,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3540,15 +3548,15 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3556,7 +3564,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3564,7 +3572,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="83" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="82" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3580,31 +3588,39 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="6" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="83" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="6" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="84" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3612,15 +3628,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3628,7 +3648,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3636,7 +3656,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3644,30 +3664,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="74" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3676,7 +3672,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="5" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="21" fillId="5" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3684,10 +3680,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="5" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="21" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3716,23 +3708,43 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="10" fillId="4" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="84" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="10" fillId="4" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3740,35 +3752,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3776,7 +3760,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3784,11 +3768,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="74" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3800,18 +3780,18 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="21" fillId="5" borderId="120" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="5" borderId="121" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="21" fillId="5" borderId="122" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="5" borderId="123" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="5" borderId="124" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -3824,11 +3804,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="5" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="5" borderId="125" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3836,11 +3812,15 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="121" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="84" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3856,19 +3836,15 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="118" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="167" fontId="10" fillId="5" borderId="119" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="120" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="121" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="124" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="122" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3899,7 +3875,7 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="4" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="4" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="20" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3915,16 +3891,16 @@
     <xf numFmtId="169" fontId="10" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="10" fillId="4" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="10" fillId="4" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="4" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="20" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="20" fillId="4" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="17" fontId="20" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="4" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3975,6 +3951,26 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="131" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="5" borderId="132" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4286,96 +4282,96 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" style="317" customWidth="1"/>
-    <col min="2" max="2" width="1.796875" style="318" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.19921875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" style="34"/>
-    <col min="5" max="5" width="9.19921875" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.19921875" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" style="34" customWidth="1"/>
-    <col min="8" max="16384" width="9.19921875" style="34"/>
+    <col min="1" max="1" width="15.42578125" style="317" customWidth="1"/>
+    <col min="2" max="2" width="1.85546875" style="318" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.140625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="34"/>
+    <col min="5" max="5" width="9.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="34" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.649999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.649999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.649999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A4" s="434" t="s">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="426" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="450" t="s">
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="442" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="450"/>
-      <c r="C5" s="450"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="442"/>
+      <c r="C5" s="442"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" s="84"/>
       <c r="F6" s="91"/>
     </row>
-    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="450" t="s">
+    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="442" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="450"/>
-      <c r="C7" s="450"/>
+      <c r="B7" s="442"/>
+      <c r="C7" s="442"/>
       <c r="F7" s="91"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="315"/>
       <c r="B8" s="315"/>
       <c r="C8" s="315"/>
       <c r="F8" s="91"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="450" t="s">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="442" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="450"/>
-      <c r="C9" s="450"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="442"/>
+      <c r="C9" s="442"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="84"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="450" t="s">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="442" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="450"/>
-      <c r="C11" s="450"/>
-    </row>
-    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="442"/>
+      <c r="C11" s="442"/>
+    </row>
+    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="84"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="450" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="442" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="450"/>
-      <c r="C13" s="450"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="442"/>
+      <c r="C13" s="442"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" s="320"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="317">
         <v>1</v>
       </c>
@@ -4383,10 +4379,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="84"/>
     </row>
-    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A17" s="317">
         <v>2</v>
       </c>
@@ -4394,7 +4390,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="318" t="s">
         <v>114</v>
       </c>
@@ -4402,7 +4398,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="39.4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
       <c r="B19" s="318" t="s">
         <v>119</v>
       </c>
@@ -4410,7 +4406,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="B20" s="318" t="s">
         <v>115</v>
       </c>
@@ -4418,7 +4414,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A21" s="318"/>
       <c r="B21" s="318" t="s">
         <v>116</v>
@@ -4427,11 +4423,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="318"/>
       <c r="C22" s="84"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="318">
         <v>3</v>
       </c>
@@ -4439,11 +4435,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="318"/>
       <c r="C24" s="84"/>
     </row>
-    <row r="25" spans="1:3" ht="39.4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.2">
       <c r="A25" s="318">
         <v>4</v>
       </c>
@@ -4451,11 +4447,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="318"/>
       <c r="C26" s="316"/>
     </row>
-    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A27" s="318">
         <v>5</v>
       </c>
@@ -4463,150 +4459,150 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="26.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="435" t="s">
+    <row r="29" spans="1:3" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="427" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="420"/>
-    </row>
-    <row r="30" spans="1:3" s="318" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A30" s="432"/>
-    </row>
-    <row r="31" spans="1:3" s="318" customFormat="1" ht="27.75" x14ac:dyDescent="0.35">
-      <c r="A31" s="421" t="s">
+      <c r="C29" s="413"/>
+    </row>
+    <row r="30" spans="1:3" s="318" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="424"/>
+    </row>
+    <row r="31" spans="1:3" s="318" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="414" t="s">
         <v>133</v>
       </c>
       <c r="C31" s="319" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="318" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A32" s="431"/>
-    </row>
-    <row r="33" spans="1:3" s="318" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="431" t="s">
+    <row r="32" spans="1:3" s="318" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="423"/>
+    </row>
+    <row r="33" spans="1:3" s="318" customFormat="1" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="423" t="s">
         <v>136</v>
       </c>
       <c r="C33" s="319" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="318" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A34" s="431"/>
+    <row r="34" spans="1:3" s="318" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="423"/>
       <c r="C34" s="319"/>
     </row>
-    <row r="35" spans="1:3" s="318" customFormat="1" ht="41.65" x14ac:dyDescent="0.35">
-      <c r="A35" s="432" t="s">
+    <row r="35" spans="1:3" s="318" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A35" s="424" t="s">
         <v>148</v>
       </c>
       <c r="C35" s="319" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="318" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A36" s="432"/>
+    <row r="36" spans="1:3" s="318" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="424"/>
       <c r="C36" s="319"/>
     </row>
-    <row r="37" spans="1:3" s="318" customFormat="1" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="432" t="s">
+    <row r="37" spans="1:3" s="318" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="424" t="s">
         <v>149</v>
       </c>
       <c r="C37" s="319" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="318" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A38" s="431"/>
-    </row>
-    <row r="39" spans="1:3" s="318" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A39" s="431" t="s">
+    <row r="38" spans="1:3" s="318" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="423"/>
+    </row>
+    <row r="39" spans="1:3" s="318" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="423" t="s">
         <v>137</v>
       </c>
       <c r="C39" s="318" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="318" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A40" s="432" t="s">
+    <row r="40" spans="1:3" s="318" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="424" t="s">
         <v>140</v>
       </c>
       <c r="C40" s="319" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="318" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="432" t="s">
+    <row r="41" spans="1:3" s="318" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="424" t="s">
         <v>139</v>
       </c>
       <c r="C41" s="319" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="318" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="433"/>
-    </row>
-    <row r="43" spans="1:3" ht="27.75" x14ac:dyDescent="0.35">
-      <c r="A43" s="432" t="s">
+    <row r="42" spans="1:3" s="318" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="425"/>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="424" t="s">
         <v>144</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="318" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A44" s="431"/>
-    </row>
-    <row r="45" spans="1:3" s="318" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A45" s="431" t="s">
+    <row r="44" spans="1:3" s="318" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="423"/>
+    </row>
+    <row r="45" spans="1:3" s="318" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="423" t="s">
         <v>142</v>
       </c>
       <c r="C45" s="318" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="318" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A46" s="431"/>
-    </row>
-    <row r="47" spans="1:3" s="318" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="A47" s="421" t="s">
+    <row r="46" spans="1:3" s="318" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="423"/>
+    </row>
+    <row r="47" spans="1:3" s="318" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="414" t="s">
         <v>122</v>
       </c>
       <c r="C47" s="319" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="318" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A48" s="421"/>
-    </row>
-    <row r="49" spans="1:3" s="318" customFormat="1" ht="41.65" x14ac:dyDescent="0.35">
-      <c r="A49" s="421" t="s">
+    <row r="48" spans="1:3" s="318" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="414"/>
+    </row>
+    <row r="49" spans="1:3" s="318" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A49" s="414" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="319" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="318" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" s="318" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="317"/>
     </row>
-    <row r="51" spans="1:3" s="318" customFormat="1" ht="27.75" x14ac:dyDescent="0.35">
-      <c r="A51" s="432" t="s">
+    <row r="51" spans="1:3" s="318" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51" s="424" t="s">
         <v>146</v>
       </c>
       <c r="C51" s="319" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="318" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" s="318" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="317"/>
     </row>
-    <row r="53" spans="1:3" s="318" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" s="318" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="317"/>
     </row>
-    <row r="54" spans="1:3" s="318" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" s="318" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="317"/>
     </row>
-    <row r="55" spans="1:3" s="318" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" s="318" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="317"/>
     </row>
   </sheetData>
@@ -4627,26 +4623,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.53125" style="323" customWidth="1"/>
-    <col min="2" max="2" width="21.19921875" style="323" customWidth="1"/>
-    <col min="3" max="4" width="10.53125" style="323" customWidth="1"/>
-    <col min="5" max="5" width="11.9296875" style="323" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" style="323" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" style="323" customWidth="1"/>
-    <col min="8" max="8" width="6.19921875" style="323" customWidth="1"/>
-    <col min="9" max="9" width="16.46484375" style="323" customWidth="1"/>
-    <col min="10" max="16384" width="9.19921875" style="323"/>
+    <col min="1" max="1" width="53.5703125" style="323" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="323" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" style="323" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="323" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="323" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="323" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" style="323" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="323" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="323"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="321" t="s">
         <v>82</v>
       </c>
@@ -4655,20 +4651,22 @@
       <c r="D1" s="322"/>
       <c r="E1" s="322"/>
       <c r="F1" s="322"/>
-      <c r="I1" s="324"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="G1" s="322"/>
+      <c r="J1" s="324"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A2" s="325"/>
       <c r="B2" s="326"/>
       <c r="C2" s="326"/>
       <c r="D2" s="326"/>
       <c r="E2" s="326"/>
       <c r="F2" s="326"/>
-      <c r="G2" s="327"/>
+      <c r="G2" s="326"/>
       <c r="H2" s="327"/>
-      <c r="I2" s="324"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.35">
+      <c r="I2" s="327"/>
+      <c r="J2" s="324"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="321" t="s">
         <v>50</v>
       </c>
@@ -4677,20 +4675,22 @@
       <c r="D3" s="326"/>
       <c r="E3" s="326"/>
       <c r="F3" s="326"/>
-      <c r="G3" s="327"/>
+      <c r="G3" s="326"/>
       <c r="H3" s="327"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="I3" s="327"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="325"/>
       <c r="B4" s="326"/>
       <c r="C4" s="326"/>
       <c r="D4" s="326"/>
       <c r="E4" s="326"/>
       <c r="F4" s="326"/>
-      <c r="G4" s="327"/>
+      <c r="G4" s="326"/>
       <c r="H4" s="327"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="I4" s="327"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="328" t="s">
         <v>85</v>
       </c>
@@ -4699,22 +4699,24 @@
       <c r="D5" s="329"/>
       <c r="E5" s="329"/>
       <c r="F5" s="329"/>
-      <c r="G5" s="330"/>
+      <c r="G5" s="329"/>
       <c r="H5" s="330"/>
       <c r="I5" s="330"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J5" s="330"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="328"/>
       <c r="B6" s="331"/>
       <c r="C6" s="331"/>
       <c r="D6" s="331"/>
       <c r="E6" s="331"/>
       <c r="F6" s="331"/>
-      <c r="G6" s="330"/>
+      <c r="G6" s="331"/>
       <c r="H6" s="330"/>
       <c r="I6" s="330"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J6" s="330"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="328" t="s">
         <v>20</v>
       </c>
@@ -4723,11 +4725,12 @@
       <c r="D7" s="332"/>
       <c r="E7" s="332"/>
       <c r="F7" s="332"/>
-      <c r="G7" s="330"/>
+      <c r="G7" s="332"/>
       <c r="H7" s="330"/>
       <c r="I7" s="330"/>
-    </row>
-    <row r="8" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J7" s="330"/>
+    </row>
+    <row r="8" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="330"/>
       <c r="B8" s="330"/>
       <c r="C8" s="330"/>
@@ -4737,8 +4740,9 @@
       <c r="G8" s="330"/>
       <c r="H8" s="330"/>
       <c r="I8" s="330"/>
-    </row>
-    <row r="9" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="330"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="333" t="s">
         <v>48</v>
       </c>
@@ -4747,11 +4751,12 @@
       <c r="D9" s="334"/>
       <c r="E9" s="334"/>
       <c r="F9" s="334"/>
-      <c r="G9" s="335"/>
-      <c r="H9" s="330"/>
+      <c r="G9" s="334"/>
+      <c r="H9" s="335"/>
       <c r="I9" s="330"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J9" s="330"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="336" t="s">
         <v>52</v>
       </c>
@@ -4760,28 +4765,30 @@
       <c r="D10" s="337"/>
       <c r="E10" s="337"/>
       <c r="F10" s="337"/>
-      <c r="G10" s="338"/>
-      <c r="H10" s="330"/>
-      <c r="I10" s="339"/>
-    </row>
-    <row r="11" spans="1:9" ht="30.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="337"/>
+      <c r="H10" s="338"/>
+      <c r="I10" s="330"/>
+      <c r="J10" s="339"/>
+    </row>
+    <row r="11" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="340"/>
       <c r="B11" s="341" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="451" t="s">
+      <c r="C11" s="443" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="451"/>
-      <c r="E11" s="451"/>
-      <c r="F11" s="451"/>
-      <c r="G11" s="342"/>
-      <c r="H11" s="330"/>
-      <c r="I11" s="343" t="s">
+      <c r="D11" s="443"/>
+      <c r="E11" s="443"/>
+      <c r="F11" s="443"/>
+      <c r="G11" s="443"/>
+      <c r="H11" s="342"/>
+      <c r="I11" s="330"/>
+      <c r="J11" s="343" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="344" t="s">
         <v>22</v>
       </c>
@@ -4800,13 +4807,16 @@
       <c r="F12" s="347" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="348" t="s">
+      <c r="G12" s="458" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="349" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="330"/>
-      <c r="I12" s="349"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="330"/>
+      <c r="J12" s="349"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="350" t="s">
         <v>54</v>
       </c>
@@ -4825,15 +4835,18 @@
       <c r="F13" s="353" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="354" t="s">
+      <c r="G13" s="459" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="330"/>
-      <c r="I13" s="355" t="s">
+      <c r="H13" s="462" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="330"/>
+      <c r="J13" s="355" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="356" t="s">
         <v>86</v>
       </c>
@@ -4844,183 +4857,201 @@
       <c r="D14" s="359"/>
       <c r="E14" s="360"/>
       <c r="F14" s="359"/>
-      <c r="G14" s="361">
-        <f>SUM(C14:F14)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="330"/>
-      <c r="I14" s="362"/>
-    </row>
-    <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="363" t="s">
+      <c r="G14" s="360"/>
+      <c r="H14" s="361">
+        <f>SUM(C14:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="330"/>
+      <c r="J14" s="361"/>
+    </row>
+    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="362" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="423">
+      <c r="B15" s="416">
         <f>'6. Non-staff costs leveraged  '!D25</f>
         <v>0</v>
       </c>
-      <c r="C15" s="422">
+      <c r="C15" s="415">
         <f>'6. Non-staff costs leveraged  '!E25</f>
         <v>0</v>
       </c>
-      <c r="D15" s="364">
+      <c r="D15" s="363">
         <f>'6. Non-staff costs leveraged  '!F25</f>
         <v>0</v>
       </c>
-      <c r="E15" s="364">
+      <c r="E15" s="363">
         <f>'6. Non-staff costs leveraged  '!G25</f>
         <v>0</v>
       </c>
-      <c r="F15" s="364">
+      <c r="F15" s="363">
         <f>'6. Non-staff costs leveraged  '!H25</f>
         <v>0</v>
       </c>
-      <c r="G15" s="365">
-        <f>SUM(B15:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="330"/>
-      <c r="I15" s="366"/>
-    </row>
-    <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="363" t="s">
+      <c r="G15" s="460">
+        <f>'6. Non-staff costs leveraged  '!I25</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="416">
+        <f>SUM(B15:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="330"/>
+      <c r="J15" s="364"/>
+    </row>
+    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="362" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="423">
+      <c r="B16" s="416">
         <f>+'6. Non-staff costs leveraged  '!D33+'5. Staff costs leveraged'!D30</f>
         <v>0</v>
       </c>
-      <c r="C16" s="422">
+      <c r="C16" s="415">
         <f>+'6. Non-staff costs leveraged  '!E33+'5. Staff costs leveraged'!G30</f>
         <v>0</v>
       </c>
-      <c r="D16" s="364">
+      <c r="D16" s="363">
         <f>+'6. Non-staff costs leveraged  '!F33+'5. Staff costs leveraged'!H30</f>
         <v>0</v>
       </c>
-      <c r="E16" s="364">
+      <c r="E16" s="363">
         <f>+'6. Non-staff costs leveraged  '!G33+'5. Staff costs leveraged'!I30</f>
         <v>0</v>
       </c>
-      <c r="F16" s="364">
+      <c r="F16" s="363">
         <f>+'6. Non-staff costs leveraged  '!H33+'5. Staff costs leveraged'!J30</f>
         <v>0</v>
       </c>
-      <c r="G16" s="365">
-        <f>SUM(B16:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="330"/>
-      <c r="I16" s="366"/>
-    </row>
-    <row r="17" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="367" t="s">
+      <c r="G16" s="460">
+        <f>+'6. Non-staff costs leveraged  '!I33+'5. Staff costs leveraged'!K30</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="416">
+        <f>SUM(B16:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="330"/>
+      <c r="J16" s="364"/>
+    </row>
+    <row r="17" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="365" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="368"/>
-      <c r="C17" s="369"/>
-      <c r="D17" s="370"/>
-      <c r="E17" s="371"/>
-      <c r="F17" s="370"/>
-      <c r="G17" s="365">
-        <f>SUM(B17:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="330"/>
-      <c r="I17" s="368"/>
-    </row>
-    <row r="18" spans="1:9" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="372" t="s">
+      <c r="B17" s="366"/>
+      <c r="C17" s="367"/>
+      <c r="D17" s="368"/>
+      <c r="E17" s="369"/>
+      <c r="F17" s="368"/>
+      <c r="G17" s="369"/>
+      <c r="H17" s="416">
+        <f>SUM(B17:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="330"/>
+      <c r="J17" s="366"/>
+    </row>
+    <row r="18" spans="1:10" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="370" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="373"/>
-      <c r="C18" s="374"/>
-      <c r="D18" s="375"/>
-      <c r="E18" s="376"/>
-      <c r="F18" s="375"/>
-      <c r="G18" s="377">
-        <f>SUM(B18:F18)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="330"/>
-      <c r="I18" s="373"/>
-    </row>
-    <row r="19" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="378" t="s">
+      <c r="B18" s="371"/>
+      <c r="C18" s="372"/>
+      <c r="D18" s="373"/>
+      <c r="E18" s="374"/>
+      <c r="F18" s="373"/>
+      <c r="G18" s="374"/>
+      <c r="H18" s="417">
+        <f>SUM(B18:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="330"/>
+      <c r="J18" s="371"/>
+    </row>
+    <row r="19" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="375" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="379">
+      <c r="B19" s="376">
         <f t="shared" ref="B19:E19" si="0">SUM(B14:B18)</f>
         <v>50</v>
       </c>
-      <c r="C19" s="380">
+      <c r="C19" s="377">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="381">
+      <c r="D19" s="378">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="381">
+      <c r="E19" s="378">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="381">
+      <c r="F19" s="378">
         <f>SUM(F14:F18)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="382">
+      <c r="G19" s="461">
         <f>SUM(G14:G18)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="330"/>
-      <c r="I19" s="383">
-        <f>SUM(I14:I18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="384"/>
-      <c r="B20" s="385"/>
-      <c r="C20" s="385"/>
-      <c r="D20" s="385"/>
-      <c r="E20" s="385"/>
-      <c r="F20" s="385"/>
-      <c r="G20" s="386"/>
-      <c r="H20" s="330"/>
-      <c r="I20" s="385"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H19" s="379">
+        <f>SUM(H14:H18)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="330"/>
+      <c r="J19" s="379">
+        <f>SUM(J14:J18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="380"/>
+      <c r="B20" s="381"/>
+      <c r="C20" s="381"/>
+      <c r="D20" s="381"/>
+      <c r="E20" s="381"/>
+      <c r="F20" s="381"/>
+      <c r="G20" s="381"/>
+      <c r="H20" s="382"/>
+      <c r="I20" s="330"/>
+      <c r="J20" s="381"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="330"/>
-      <c r="B21" s="387"/>
-      <c r="C21" s="387"/>
-      <c r="D21" s="387"/>
-      <c r="E21" s="387"/>
-      <c r="F21" s="387"/>
-      <c r="G21" s="387"/>
-      <c r="H21" s="330"/>
+      <c r="B21" s="383"/>
+      <c r="C21" s="383"/>
+      <c r="D21" s="383"/>
+      <c r="E21" s="383"/>
+      <c r="F21" s="383"/>
+      <c r="G21" s="383"/>
+      <c r="H21" s="383"/>
       <c r="I21" s="330"/>
-    </row>
-    <row r="22" spans="1:9" ht="30.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J21" s="330"/>
+    </row>
+    <row r="22" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="333" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="341" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="451" t="s">
+      <c r="C22" s="443" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="451"/>
-      <c r="E22" s="451"/>
-      <c r="F22" s="451"/>
-      <c r="G22" s="388"/>
-      <c r="H22" s="330"/>
-      <c r="I22" s="343" t="s">
+      <c r="D22" s="443"/>
+      <c r="E22" s="443"/>
+      <c r="F22" s="443"/>
+      <c r="G22" s="443"/>
+      <c r="H22" s="384"/>
+      <c r="I22" s="330"/>
+      <c r="J22" s="343" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="344" t="s">
         <v>21</v>
       </c>
@@ -5039,14 +5070,17 @@
       <c r="F23" s="347" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="348" t="s">
+      <c r="G23" s="347" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="348" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="330"/>
-      <c r="I23" s="349"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="389" t="s">
+      <c r="I23" s="330"/>
+      <c r="J23" s="349"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="385" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="351" t="s">
@@ -5064,267 +5098,292 @@
       <c r="F24" s="353" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="354" t="s">
+      <c r="G24" s="353" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="330"/>
-      <c r="I24" s="355" t="s">
+      <c r="H24" s="354" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="390" t="s">
+      <c r="I24" s="330"/>
+      <c r="J24" s="355" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="386" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="357">
         <f>'5. Staff costs leveraged'!D30+'3. Staff costs SIPF'!E26</f>
         <v>0</v>
       </c>
-      <c r="C25" s="426">
+      <c r="C25" s="419">
         <f>'5. Staff costs leveraged'!G30+'3. Staff costs SIPF'!E26</f>
         <v>0</v>
       </c>
-      <c r="D25" s="427">
+      <c r="D25" s="420">
         <f>'5. Staff costs leveraged'!H30+'3. Staff costs SIPF'!F26</f>
         <v>0</v>
       </c>
-      <c r="E25" s="427">
+      <c r="E25" s="420">
         <f>'5. Staff costs leveraged'!I30+'3. Staff costs SIPF'!G26</f>
         <v>0</v>
       </c>
-      <c r="F25" s="428">
+      <c r="F25" s="420">
         <f>'5. Staff costs leveraged'!J30+'3. Staff costs SIPF'!H26</f>
         <v>0</v>
       </c>
-      <c r="G25" s="362">
-        <f t="shared" ref="G25:G33" si="1">SUM(C25:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="330"/>
-      <c r="I25" s="362">
-        <f>+'5. Staff costs leveraged'!L30+'3. Staff costs SIPF'!J26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="391" t="s">
+      <c r="G25" s="420">
+        <f>'5. Staff costs leveraged'!K30+'3. Staff costs SIPF'!I26</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="361">
+        <f t="shared" ref="H25:H33" si="1">SUM(C25:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="330"/>
+      <c r="J25" s="361">
+        <f>+'5. Staff costs leveraged'!M30+'3. Staff costs SIPF'!K26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="387" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="392"/>
-      <c r="C26" s="393"/>
-      <c r="D26" s="394"/>
-      <c r="E26" s="395"/>
-      <c r="F26" s="396"/>
-      <c r="G26" s="423">
+      <c r="B26" s="388"/>
+      <c r="C26" s="389"/>
+      <c r="D26" s="390"/>
+      <c r="E26" s="391"/>
+      <c r="F26" s="391"/>
+      <c r="G26" s="391"/>
+      <c r="H26" s="416">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="330"/>
-      <c r="I26" s="366"/>
-    </row>
-    <row r="27" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="391" t="s">
+      <c r="I26" s="330"/>
+      <c r="J26" s="364"/>
+    </row>
+    <row r="27" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="387" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="392"/>
-      <c r="C27" s="393"/>
-      <c r="D27" s="394"/>
-      <c r="E27" s="395"/>
-      <c r="F27" s="396"/>
-      <c r="G27" s="423">
+      <c r="B27" s="388"/>
+      <c r="C27" s="389"/>
+      <c r="D27" s="390"/>
+      <c r="E27" s="391"/>
+      <c r="F27" s="391"/>
+      <c r="G27" s="391"/>
+      <c r="H27" s="416">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="330"/>
-      <c r="I27" s="366"/>
-    </row>
-    <row r="28" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="391" t="s">
+      <c r="I27" s="330"/>
+      <c r="J27" s="364"/>
+    </row>
+    <row r="28" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="387" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="392"/>
-      <c r="C28" s="393"/>
-      <c r="D28" s="394"/>
-      <c r="E28" s="395"/>
-      <c r="F28" s="396"/>
-      <c r="G28" s="423">
+      <c r="B28" s="388"/>
+      <c r="C28" s="389"/>
+      <c r="D28" s="390"/>
+      <c r="E28" s="391"/>
+      <c r="F28" s="391"/>
+      <c r="G28" s="391"/>
+      <c r="H28" s="416">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="330"/>
-      <c r="I28" s="366"/>
-    </row>
-    <row r="29" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="391" t="s">
+      <c r="I28" s="330"/>
+      <c r="J28" s="364"/>
+    </row>
+    <row r="29" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="387" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="392"/>
-      <c r="C29" s="393"/>
-      <c r="D29" s="394"/>
-      <c r="E29" s="395"/>
-      <c r="F29" s="396"/>
-      <c r="G29" s="423">
+      <c r="B29" s="388"/>
+      <c r="C29" s="389"/>
+      <c r="D29" s="390"/>
+      <c r="E29" s="391"/>
+      <c r="F29" s="391"/>
+      <c r="G29" s="391"/>
+      <c r="H29" s="416">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="330"/>
-      <c r="I29" s="366"/>
-    </row>
-    <row r="30" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="391" t="s">
+      <c r="I29" s="330"/>
+      <c r="J29" s="364"/>
+    </row>
+    <row r="30" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="387" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="392"/>
-      <c r="C30" s="393"/>
-      <c r="D30" s="394"/>
-      <c r="E30" s="395"/>
-      <c r="F30" s="396"/>
-      <c r="G30" s="423">
+      <c r="B30" s="388"/>
+      <c r="C30" s="389"/>
+      <c r="D30" s="390"/>
+      <c r="E30" s="391"/>
+      <c r="F30" s="391"/>
+      <c r="G30" s="391"/>
+      <c r="H30" s="416">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="330"/>
-      <c r="I30" s="366"/>
-    </row>
-    <row r="31" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="391" t="s">
+      <c r="I30" s="330"/>
+      <c r="J30" s="364"/>
+    </row>
+    <row r="31" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="387" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="392"/>
-      <c r="C31" s="393"/>
-      <c r="D31" s="394"/>
-      <c r="E31" s="395"/>
-      <c r="F31" s="396"/>
-      <c r="G31" s="423">
+      <c r="B31" s="388"/>
+      <c r="C31" s="389"/>
+      <c r="D31" s="390"/>
+      <c r="E31" s="391"/>
+      <c r="F31" s="391"/>
+      <c r="G31" s="391"/>
+      <c r="H31" s="416">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="330"/>
-      <c r="I31" s="366"/>
-    </row>
-    <row r="32" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="397" t="s">
+      <c r="I31" s="330"/>
+      <c r="J31" s="364"/>
+    </row>
+    <row r="32" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="392" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="398"/>
-      <c r="C32" s="399"/>
-      <c r="D32" s="400"/>
-      <c r="E32" s="401"/>
-      <c r="F32" s="402"/>
-      <c r="G32" s="423">
+      <c r="B32" s="393"/>
+      <c r="C32" s="394"/>
+      <c r="D32" s="395"/>
+      <c r="E32" s="396"/>
+      <c r="F32" s="396"/>
+      <c r="G32" s="396"/>
+      <c r="H32" s="416">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="330"/>
-      <c r="I32" s="368"/>
-    </row>
-    <row r="33" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="403" t="s">
+      <c r="I32" s="330"/>
+      <c r="J32" s="366"/>
+    </row>
+    <row r="33" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="397" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="404"/>
-      <c r="C33" s="405"/>
-      <c r="D33" s="406"/>
-      <c r="E33" s="407"/>
-      <c r="F33" s="408"/>
-      <c r="G33" s="424">
+      <c r="B33" s="398"/>
+      <c r="C33" s="399"/>
+      <c r="D33" s="400"/>
+      <c r="E33" s="401"/>
+      <c r="F33" s="401"/>
+      <c r="G33" s="401"/>
+      <c r="H33" s="417">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H33" s="330"/>
-      <c r="I33" s="373"/>
-    </row>
-    <row r="34" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="409" t="s">
+      <c r="I33" s="330"/>
+      <c r="J33" s="371"/>
+    </row>
+    <row r="34" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="402" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="410">
-        <f t="shared" ref="B34:G34" si="2">SUM(B25:B33)</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="411">
+      <c r="B34" s="403">
+        <f t="shared" ref="B34:H34" si="2">SUM(B25:B33)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="404">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D34" s="412">
+      <c r="D34" s="405">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E34" s="412">
+      <c r="E34" s="405">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F34" s="413">
+      <c r="F34" s="405">
+        <f t="shared" ref="F34" si="3">SUM(F25:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="406">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G34" s="424">
+      <c r="H34" s="417">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H34" s="330"/>
-      <c r="I34" s="424">
-        <f>SUM(I25:I31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="414"/>
-      <c r="B35" s="415"/>
-      <c r="C35" s="415"/>
-      <c r="D35" s="415"/>
-      <c r="E35" s="415"/>
-      <c r="F35" s="415"/>
-      <c r="G35" s="425"/>
-      <c r="H35" s="414"/>
-      <c r="I35" s="331"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="414"/>
-      <c r="B36" s="415"/>
-      <c r="C36" s="415"/>
-      <c r="D36" s="415"/>
-      <c r="E36" s="415"/>
-      <c r="F36" s="415"/>
-      <c r="G36" s="425"/>
-      <c r="H36" s="414"/>
-      <c r="I36" s="331"/>
-    </row>
-    <row r="37" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="416" t="s">
+      <c r="I34" s="330"/>
+      <c r="J34" s="417">
+        <f>SUM(J25:J31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="407"/>
+      <c r="B35" s="408"/>
+      <c r="C35" s="408"/>
+      <c r="D35" s="408"/>
+      <c r="E35" s="408"/>
+      <c r="F35" s="408"/>
+      <c r="G35" s="408"/>
+      <c r="H35" s="418"/>
+      <c r="I35" s="407"/>
+      <c r="J35" s="331"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="407"/>
+      <c r="B36" s="408"/>
+      <c r="C36" s="408"/>
+      <c r="D36" s="408"/>
+      <c r="E36" s="408"/>
+      <c r="F36" s="408"/>
+      <c r="G36" s="408"/>
+      <c r="H36" s="418"/>
+      <c r="I36" s="407"/>
+      <c r="J36" s="331"/>
+    </row>
+    <row r="37" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="409" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="417">
-        <f t="shared" ref="B37:G37" si="3">-B34+B19</f>
+      <c r="B37" s="410">
+        <f t="shared" ref="B37:H37" si="4">-B34+B19</f>
         <v>50</v>
       </c>
-      <c r="C37" s="418">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="419">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="419">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="419">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="429">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="330"/>
-      <c r="I37" s="430">
-        <f>-I34+I19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="C37" s="411">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="412">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="412">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="412">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="412">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="421">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="330"/>
+      <c r="J37" s="422">
+        <f>-J34+J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="330"/>
       <c r="B38" s="330"/>
       <c r="C38" s="330"/>
@@ -5334,8 +5393,9 @@
       <c r="G38" s="330"/>
       <c r="H38" s="330"/>
       <c r="I38" s="330"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J38" s="330"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="330"/>
       <c r="B39" s="330"/>
       <c r="C39" s="330"/>
@@ -5345,8 +5405,9 @@
       <c r="G39" s="330"/>
       <c r="H39" s="330"/>
       <c r="I39" s="330"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J39" s="330"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="330"/>
       <c r="B40" s="330"/>
       <c r="C40" s="330"/>
@@ -5356,8 +5417,9 @@
       <c r="G40" s="330"/>
       <c r="H40" s="330"/>
       <c r="I40" s="330"/>
-    </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J40" s="330"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="330"/>
       <c r="B41" s="330"/>
       <c r="C41" s="330"/>
@@ -5367,8 +5429,9 @@
       <c r="G41" s="330"/>
       <c r="H41" s="330"/>
       <c r="I41" s="330"/>
-    </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J41" s="330"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="330"/>
       <c r="B42" s="330"/>
       <c r="C42" s="330"/>
@@ -5378,8 +5441,9 @@
       <c r="G42" s="330"/>
       <c r="H42" s="330"/>
       <c r="I42" s="330"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J42" s="330"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="330"/>
       <c r="B43" s="330"/>
       <c r="C43" s="330"/>
@@ -5389,8 +5453,9 @@
       <c r="G43" s="330"/>
       <c r="H43" s="330"/>
       <c r="I43" s="330"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J43" s="330"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="330"/>
       <c r="B44" s="330"/>
       <c r="C44" s="330"/>
@@ -5400,8 +5465,9 @@
       <c r="G44" s="330"/>
       <c r="H44" s="330"/>
       <c r="I44" s="330"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J44" s="330"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="330"/>
       <c r="B45" s="330"/>
       <c r="C45" s="330"/>
@@ -5411,8 +5477,9 @@
       <c r="G45" s="330"/>
       <c r="H45" s="330"/>
       <c r="I45" s="330"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J45" s="330"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="330"/>
       <c r="B46" s="330"/>
       <c r="C46" s="330"/>
@@ -5422,8 +5489,9 @@
       <c r="G46" s="330"/>
       <c r="H46" s="330"/>
       <c r="I46" s="330"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J46" s="330"/>
+    </row>
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="330"/>
       <c r="B47" s="330"/>
       <c r="C47" s="330"/>
@@ -5433,8 +5501,9 @@
       <c r="G47" s="330"/>
       <c r="H47" s="330"/>
       <c r="I47" s="330"/>
-    </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J47" s="330"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="330"/>
       <c r="B48" s="330"/>
       <c r="C48" s="330"/>
@@ -5444,8 +5513,9 @@
       <c r="G48" s="330"/>
       <c r="H48" s="330"/>
       <c r="I48" s="330"/>
-    </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J48" s="330"/>
+    </row>
+    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="330"/>
       <c r="B49" s="330"/>
       <c r="C49" s="330"/>
@@ -5455,8 +5525,9 @@
       <c r="G49" s="330"/>
       <c r="H49" s="330"/>
       <c r="I49" s="330"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J49" s="330"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="330"/>
       <c r="B50" s="330"/>
       <c r="C50" s="330"/>
@@ -5466,8 +5537,9 @@
       <c r="G50" s="330"/>
       <c r="H50" s="330"/>
       <c r="I50" s="330"/>
-    </row>
-    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J50" s="330"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="330"/>
       <c r="B51" s="330"/>
       <c r="C51" s="330"/>
@@ -5477,8 +5549,9 @@
       <c r="G51" s="330"/>
       <c r="H51" s="330"/>
       <c r="I51" s="330"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J51" s="330"/>
+    </row>
+    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="330"/>
       <c r="B52" s="330"/>
       <c r="C52" s="330"/>
@@ -5488,8 +5561,9 @@
       <c r="G52" s="330"/>
       <c r="H52" s="330"/>
       <c r="I52" s="330"/>
-    </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J52" s="330"/>
+    </row>
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="330"/>
       <c r="B53" s="330"/>
       <c r="C53" s="330"/>
@@ -5499,8 +5573,9 @@
       <c r="G53" s="330"/>
       <c r="H53" s="330"/>
       <c r="I53" s="330"/>
-    </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J53" s="330"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="330"/>
       <c r="B54" s="330"/>
       <c r="C54" s="330"/>
@@ -5510,8 +5585,9 @@
       <c r="G54" s="330"/>
       <c r="H54" s="330"/>
       <c r="I54" s="330"/>
-    </row>
-    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J54" s="330"/>
+    </row>
+    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="330"/>
       <c r="B55" s="330"/>
       <c r="C55" s="330"/>
@@ -5521,8 +5597,9 @@
       <c r="G55" s="330"/>
       <c r="H55" s="330"/>
       <c r="I55" s="330"/>
-    </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J55" s="330"/>
+    </row>
+    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="330"/>
       <c r="B56" s="330"/>
       <c r="C56" s="330"/>
@@ -5532,8 +5609,9 @@
       <c r="G56" s="330"/>
       <c r="H56" s="330"/>
       <c r="I56" s="330"/>
-    </row>
-    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J56" s="330"/>
+    </row>
+    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="330"/>
       <c r="B57" s="330"/>
       <c r="C57" s="330"/>
@@ -5543,8 +5621,9 @@
       <c r="G57" s="330"/>
       <c r="H57" s="330"/>
       <c r="I57" s="330"/>
-    </row>
-    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J57" s="330"/>
+    </row>
+    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="330"/>
       <c r="B58" s="330"/>
       <c r="C58" s="330"/>
@@ -5554,8 +5633,9 @@
       <c r="G58" s="330"/>
       <c r="H58" s="330"/>
       <c r="I58" s="330"/>
-    </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J58" s="330"/>
+    </row>
+    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="330"/>
       <c r="B59" s="330"/>
       <c r="C59" s="330"/>
@@ -5565,8 +5645,9 @@
       <c r="G59" s="330"/>
       <c r="H59" s="330"/>
       <c r="I59" s="330"/>
-    </row>
-    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J59" s="330"/>
+    </row>
+    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="330"/>
       <c r="B60" s="330"/>
       <c r="C60" s="330"/>
@@ -5576,8 +5657,9 @@
       <c r="G60" s="330"/>
       <c r="H60" s="330"/>
       <c r="I60" s="330"/>
-    </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J60" s="330"/>
+    </row>
+    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="330"/>
       <c r="B61" s="330"/>
       <c r="C61" s="330"/>
@@ -5587,8 +5669,9 @@
       <c r="G61" s="330"/>
       <c r="H61" s="330"/>
       <c r="I61" s="330"/>
-    </row>
-    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J61" s="330"/>
+    </row>
+    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="330"/>
       <c r="B62" s="330"/>
       <c r="C62" s="330"/>
@@ -5598,8 +5681,9 @@
       <c r="G62" s="330"/>
       <c r="H62" s="330"/>
       <c r="I62" s="330"/>
-    </row>
-    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J62" s="330"/>
+    </row>
+    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="330"/>
       <c r="B63" s="330"/>
       <c r="C63" s="330"/>
@@ -5609,8 +5693,9 @@
       <c r="G63" s="330"/>
       <c r="H63" s="330"/>
       <c r="I63" s="330"/>
-    </row>
-    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J63" s="330"/>
+    </row>
+    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="330"/>
       <c r="B64" s="330"/>
       <c r="C64" s="330"/>
@@ -5620,8 +5705,9 @@
       <c r="G64" s="330"/>
       <c r="H64" s="330"/>
       <c r="I64" s="330"/>
-    </row>
-    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J64" s="330"/>
+    </row>
+    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="330"/>
       <c r="B65" s="330"/>
       <c r="C65" s="330"/>
@@ -5631,8 +5717,9 @@
       <c r="G65" s="330"/>
       <c r="H65" s="330"/>
       <c r="I65" s="330"/>
-    </row>
-    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J65" s="330"/>
+    </row>
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="330"/>
       <c r="B66" s="330"/>
       <c r="C66" s="330"/>
@@ -5642,8 +5729,9 @@
       <c r="G66" s="330"/>
       <c r="H66" s="330"/>
       <c r="I66" s="330"/>
-    </row>
-    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J66" s="330"/>
+    </row>
+    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="330"/>
       <c r="B67" s="330"/>
       <c r="C67" s="330"/>
@@ -5653,8 +5741,9 @@
       <c r="G67" s="330"/>
       <c r="H67" s="330"/>
       <c r="I67" s="330"/>
-    </row>
-    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J67" s="330"/>
+    </row>
+    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="330"/>
       <c r="B68" s="330"/>
       <c r="C68" s="330"/>
@@ -5664,8 +5753,9 @@
       <c r="G68" s="330"/>
       <c r="H68" s="330"/>
       <c r="I68" s="330"/>
-    </row>
-    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J68" s="330"/>
+    </row>
+    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="330"/>
       <c r="B69" s="330"/>
       <c r="C69" s="330"/>
@@ -5675,8 +5765,9 @@
       <c r="G69" s="330"/>
       <c r="H69" s="330"/>
       <c r="I69" s="330"/>
-    </row>
-    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J69" s="330"/>
+    </row>
+    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="330"/>
       <c r="B70" s="330"/>
       <c r="C70" s="330"/>
@@ -5686,8 +5777,9 @@
       <c r="G70" s="330"/>
       <c r="H70" s="330"/>
       <c r="I70" s="330"/>
-    </row>
-    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J70" s="330"/>
+    </row>
+    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="330"/>
       <c r="B71" s="330"/>
       <c r="C71" s="330"/>
@@ -5697,8 +5789,9 @@
       <c r="G71" s="330"/>
       <c r="H71" s="330"/>
       <c r="I71" s="330"/>
-    </row>
-    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J71" s="330"/>
+    </row>
+    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="330"/>
       <c r="B72" s="330"/>
       <c r="C72" s="330"/>
@@ -5708,8 +5801,9 @@
       <c r="G72" s="330"/>
       <c r="H72" s="330"/>
       <c r="I72" s="330"/>
-    </row>
-    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J72" s="330"/>
+    </row>
+    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="330"/>
       <c r="B73" s="330"/>
       <c r="C73" s="330"/>
@@ -5719,8 +5813,9 @@
       <c r="G73" s="330"/>
       <c r="H73" s="330"/>
       <c r="I73" s="330"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J73" s="330"/>
+    </row>
+    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="330"/>
       <c r="B74" s="330"/>
       <c r="C74" s="330"/>
@@ -5730,8 +5825,9 @@
       <c r="G74" s="330"/>
       <c r="H74" s="330"/>
       <c r="I74" s="330"/>
-    </row>
-    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J74" s="330"/>
+    </row>
+    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="330"/>
       <c r="B75" s="330"/>
       <c r="C75" s="330"/>
@@ -5741,8 +5837,9 @@
       <c r="G75" s="330"/>
       <c r="H75" s="330"/>
       <c r="I75" s="330"/>
-    </row>
-    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J75" s="330"/>
+    </row>
+    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="330"/>
       <c r="B76" s="330"/>
       <c r="C76" s="330"/>
@@ -5752,8 +5849,9 @@
       <c r="G76" s="330"/>
       <c r="H76" s="330"/>
       <c r="I76" s="330"/>
-    </row>
-    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J76" s="330"/>
+    </row>
+    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="330"/>
       <c r="B77" s="330"/>
       <c r="C77" s="330"/>
@@ -5763,8 +5861,9 @@
       <c r="G77" s="330"/>
       <c r="H77" s="330"/>
       <c r="I77" s="330"/>
-    </row>
-    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J77" s="330"/>
+    </row>
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="330"/>
       <c r="B78" s="330"/>
       <c r="C78" s="330"/>
@@ -5774,8 +5873,9 @@
       <c r="G78" s="330"/>
       <c r="H78" s="330"/>
       <c r="I78" s="330"/>
-    </row>
-    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J78" s="330"/>
+    </row>
+    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="330"/>
       <c r="B79" s="330"/>
       <c r="C79" s="330"/>
@@ -5785,8 +5885,9 @@
       <c r="G79" s="330"/>
       <c r="H79" s="330"/>
       <c r="I79" s="330"/>
-    </row>
-    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J79" s="330"/>
+    </row>
+    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="330"/>
       <c r="B80" s="330"/>
       <c r="C80" s="330"/>
@@ -5796,8 +5897,9 @@
       <c r="G80" s="330"/>
       <c r="H80" s="330"/>
       <c r="I80" s="330"/>
-    </row>
-    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J80" s="330"/>
+    </row>
+    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="330"/>
       <c r="B81" s="330"/>
       <c r="C81" s="330"/>
@@ -5807,8 +5909,9 @@
       <c r="G81" s="330"/>
       <c r="H81" s="330"/>
       <c r="I81" s="330"/>
-    </row>
-    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J81" s="330"/>
+    </row>
+    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="330"/>
       <c r="B82" s="330"/>
       <c r="C82" s="330"/>
@@ -5818,8 +5921,9 @@
       <c r="G82" s="330"/>
       <c r="H82" s="330"/>
       <c r="I82" s="330"/>
-    </row>
-    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J82" s="330"/>
+    </row>
+    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="330"/>
       <c r="B83" s="330"/>
       <c r="C83" s="330"/>
@@ -5829,8 +5933,9 @@
       <c r="G83" s="330"/>
       <c r="H83" s="330"/>
       <c r="I83" s="330"/>
-    </row>
-    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J83" s="330"/>
+    </row>
+    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="330"/>
       <c r="B84" s="330"/>
       <c r="C84" s="330"/>
@@ -5840,8 +5945,9 @@
       <c r="G84" s="330"/>
       <c r="H84" s="330"/>
       <c r="I84" s="330"/>
-    </row>
-    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J84" s="330"/>
+    </row>
+    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="330"/>
       <c r="B85" s="330"/>
       <c r="C85" s="330"/>
@@ -5851,8 +5957,9 @@
       <c r="G85" s="330"/>
       <c r="H85" s="330"/>
       <c r="I85" s="330"/>
-    </row>
-    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J85" s="330"/>
+    </row>
+    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="330"/>
       <c r="B86" s="330"/>
       <c r="C86" s="330"/>
@@ -5862,8 +5969,9 @@
       <c r="G86" s="330"/>
       <c r="H86" s="330"/>
       <c r="I86" s="330"/>
-    </row>
-    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J86" s="330"/>
+    </row>
+    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="330"/>
       <c r="B87" s="330"/>
       <c r="C87" s="330"/>
@@ -5873,8 +5981,9 @@
       <c r="G87" s="330"/>
       <c r="H87" s="330"/>
       <c r="I87" s="330"/>
-    </row>
-    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J87" s="330"/>
+    </row>
+    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="330"/>
       <c r="B88" s="330"/>
       <c r="C88" s="330"/>
@@ -5884,8 +5993,9 @@
       <c r="G88" s="330"/>
       <c r="H88" s="330"/>
       <c r="I88" s="330"/>
-    </row>
-    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J88" s="330"/>
+    </row>
+    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="330"/>
       <c r="B89" s="330"/>
       <c r="C89" s="330"/>
@@ -5895,8 +6005,9 @@
       <c r="G89" s="330"/>
       <c r="H89" s="330"/>
       <c r="I89" s="330"/>
-    </row>
-    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J89" s="330"/>
+    </row>
+    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="330"/>
       <c r="B90" s="330"/>
       <c r="C90" s="330"/>
@@ -5906,8 +6017,9 @@
       <c r="G90" s="330"/>
       <c r="H90" s="330"/>
       <c r="I90" s="330"/>
-    </row>
-    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J90" s="330"/>
+    </row>
+    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="330"/>
       <c r="B91" s="330"/>
       <c r="C91" s="330"/>
@@ -5917,8 +6029,9 @@
       <c r="G91" s="330"/>
       <c r="H91" s="330"/>
       <c r="I91" s="330"/>
-    </row>
-    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J91" s="330"/>
+    </row>
+    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="330"/>
       <c r="B92" s="330"/>
       <c r="C92" s="330"/>
@@ -5928,8 +6041,9 @@
       <c r="G92" s="330"/>
       <c r="H92" s="330"/>
       <c r="I92" s="330"/>
-    </row>
-    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J92" s="330"/>
+    </row>
+    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="330"/>
       <c r="B93" s="330"/>
       <c r="C93" s="330"/>
@@ -5939,8 +6053,9 @@
       <c r="G93" s="330"/>
       <c r="H93" s="330"/>
       <c r="I93" s="330"/>
-    </row>
-    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J93" s="330"/>
+    </row>
+    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="330"/>
       <c r="B94" s="330"/>
       <c r="C94" s="330"/>
@@ -5950,8 +6065,9 @@
       <c r="G94" s="330"/>
       <c r="H94" s="330"/>
       <c r="I94" s="330"/>
-    </row>
-    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J94" s="330"/>
+    </row>
+    <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="330"/>
       <c r="B95" s="330"/>
       <c r="C95" s="330"/>
@@ -5961,8 +6077,9 @@
       <c r="G95" s="330"/>
       <c r="H95" s="330"/>
       <c r="I95" s="330"/>
-    </row>
-    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J95" s="330"/>
+    </row>
+    <row r="96" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="330"/>
       <c r="B96" s="330"/>
       <c r="C96" s="330"/>
@@ -5972,8 +6089,9 @@
       <c r="G96" s="330"/>
       <c r="H96" s="330"/>
       <c r="I96" s="330"/>
-    </row>
-    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J96" s="330"/>
+    </row>
+    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="330"/>
       <c r="B97" s="330"/>
       <c r="C97" s="330"/>
@@ -5983,8 +6101,9 @@
       <c r="G97" s="330"/>
       <c r="H97" s="330"/>
       <c r="I97" s="330"/>
-    </row>
-    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J97" s="330"/>
+    </row>
+    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="330"/>
       <c r="B98" s="330"/>
       <c r="C98" s="330"/>
@@ -5994,8 +6113,9 @@
       <c r="G98" s="330"/>
       <c r="H98" s="330"/>
       <c r="I98" s="330"/>
-    </row>
-    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J98" s="330"/>
+    </row>
+    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="330"/>
       <c r="B99" s="330"/>
       <c r="C99" s="330"/>
@@ -6005,8 +6125,9 @@
       <c r="G99" s="330"/>
       <c r="H99" s="330"/>
       <c r="I99" s="330"/>
-    </row>
-    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J99" s="330"/>
+    </row>
+    <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="330"/>
       <c r="B100" s="330"/>
       <c r="C100" s="330"/>
@@ -6016,8 +6137,9 @@
       <c r="G100" s="330"/>
       <c r="H100" s="330"/>
       <c r="I100" s="330"/>
-    </row>
-    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J100" s="330"/>
+    </row>
+    <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="330"/>
       <c r="B101" s="330"/>
       <c r="C101" s="330"/>
@@ -6027,8 +6149,9 @@
       <c r="G101" s="330"/>
       <c r="H101" s="330"/>
       <c r="I101" s="330"/>
-    </row>
-    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J101" s="330"/>
+    </row>
+    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="330"/>
       <c r="B102" s="330"/>
       <c r="C102" s="330"/>
@@ -6038,8 +6161,9 @@
       <c r="G102" s="330"/>
       <c r="H102" s="330"/>
       <c r="I102" s="330"/>
-    </row>
-    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J102" s="330"/>
+    </row>
+    <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="330"/>
       <c r="B103" s="330"/>
       <c r="C103" s="330"/>
@@ -6049,8 +6173,9 @@
       <c r="G103" s="330"/>
       <c r="H103" s="330"/>
       <c r="I103" s="330"/>
-    </row>
-    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J103" s="330"/>
+    </row>
+    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="330"/>
       <c r="B104" s="330"/>
       <c r="C104" s="330"/>
@@ -6060,8 +6185,9 @@
       <c r="G104" s="330"/>
       <c r="H104" s="330"/>
       <c r="I104" s="330"/>
-    </row>
-    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J104" s="330"/>
+    </row>
+    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="330"/>
       <c r="B105" s="330"/>
       <c r="C105" s="330"/>
@@ -6071,8 +6197,9 @@
       <c r="G105" s="330"/>
       <c r="H105" s="330"/>
       <c r="I105" s="330"/>
-    </row>
-    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J105" s="330"/>
+    </row>
+    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="330"/>
       <c r="B106" s="330"/>
       <c r="C106" s="330"/>
@@ -6082,8 +6209,9 @@
       <c r="G106" s="330"/>
       <c r="H106" s="330"/>
       <c r="I106" s="330"/>
-    </row>
-    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J106" s="330"/>
+    </row>
+    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="330"/>
       <c r="B107" s="330"/>
       <c r="C107" s="330"/>
@@ -6093,8 +6221,9 @@
       <c r="G107" s="330"/>
       <c r="H107" s="330"/>
       <c r="I107" s="330"/>
-    </row>
-    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J107" s="330"/>
+    </row>
+    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="330"/>
       <c r="B108" s="330"/>
       <c r="C108" s="330"/>
@@ -6104,8 +6233,9 @@
       <c r="G108" s="330"/>
       <c r="H108" s="330"/>
       <c r="I108" s="330"/>
-    </row>
-    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J108" s="330"/>
+    </row>
+    <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="330"/>
       <c r="B109" s="330"/>
       <c r="C109" s="330"/>
@@ -6115,8 +6245,9 @@
       <c r="G109" s="330"/>
       <c r="H109" s="330"/>
       <c r="I109" s="330"/>
-    </row>
-    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J109" s="330"/>
+    </row>
+    <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="330"/>
       <c r="B110" s="330"/>
       <c r="C110" s="330"/>
@@ -6126,8 +6257,9 @@
       <c r="G110" s="330"/>
       <c r="H110" s="330"/>
       <c r="I110" s="330"/>
-    </row>
-    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J110" s="330"/>
+    </row>
+    <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="330"/>
       <c r="B111" s="330"/>
       <c r="C111" s="330"/>
@@ -6137,8 +6269,9 @@
       <c r="G111" s="330"/>
       <c r="H111" s="330"/>
       <c r="I111" s="330"/>
-    </row>
-    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J111" s="330"/>
+    </row>
+    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="330"/>
       <c r="B112" s="330"/>
       <c r="C112" s="330"/>
@@ -6148,8 +6281,9 @@
       <c r="G112" s="330"/>
       <c r="H112" s="330"/>
       <c r="I112" s="330"/>
-    </row>
-    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J112" s="330"/>
+    </row>
+    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="330"/>
       <c r="B113" s="330"/>
       <c r="C113" s="330"/>
@@ -6159,8 +6293,9 @@
       <c r="G113" s="330"/>
       <c r="H113" s="330"/>
       <c r="I113" s="330"/>
-    </row>
-    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J113" s="330"/>
+    </row>
+    <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="330"/>
       <c r="B114" s="330"/>
       <c r="C114" s="330"/>
@@ -6170,8 +6305,9 @@
       <c r="G114" s="330"/>
       <c r="H114" s="330"/>
       <c r="I114" s="330"/>
-    </row>
-    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J114" s="330"/>
+    </row>
+    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="330"/>
       <c r="B115" s="330"/>
       <c r="C115" s="330"/>
@@ -6181,8 +6317,9 @@
       <c r="G115" s="330"/>
       <c r="H115" s="330"/>
       <c r="I115" s="330"/>
-    </row>
-    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J115" s="330"/>
+    </row>
+    <row r="116" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="330"/>
       <c r="B116" s="330"/>
       <c r="C116" s="330"/>
@@ -6192,8 +6329,9 @@
       <c r="G116" s="330"/>
       <c r="H116" s="330"/>
       <c r="I116" s="330"/>
-    </row>
-    <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J116" s="330"/>
+    </row>
+    <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="330"/>
       <c r="B117" s="330"/>
       <c r="C117" s="330"/>
@@ -6203,8 +6341,9 @@
       <c r="G117" s="330"/>
       <c r="H117" s="330"/>
       <c r="I117" s="330"/>
-    </row>
-    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J117" s="330"/>
+    </row>
+    <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="330"/>
       <c r="B118" s="330"/>
       <c r="C118" s="330"/>
@@ -6214,8 +6353,9 @@
       <c r="G118" s="330"/>
       <c r="H118" s="330"/>
       <c r="I118" s="330"/>
-    </row>
-    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J118" s="330"/>
+    </row>
+    <row r="119" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="330"/>
       <c r="B119" s="330"/>
       <c r="C119" s="330"/>
@@ -6225,8 +6365,9 @@
       <c r="G119" s="330"/>
       <c r="H119" s="330"/>
       <c r="I119" s="330"/>
-    </row>
-    <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J119" s="330"/>
+    </row>
+    <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="330"/>
       <c r="B120" s="330"/>
       <c r="C120" s="330"/>
@@ -6236,8 +6377,9 @@
       <c r="G120" s="330"/>
       <c r="H120" s="330"/>
       <c r="I120" s="330"/>
-    </row>
-    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J120" s="330"/>
+    </row>
+    <row r="121" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="330"/>
       <c r="B121" s="330"/>
       <c r="C121" s="330"/>
@@ -6247,8 +6389,9 @@
       <c r="G121" s="330"/>
       <c r="H121" s="330"/>
       <c r="I121" s="330"/>
-    </row>
-    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J121" s="330"/>
+    </row>
+    <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="330"/>
       <c r="B122" s="330"/>
       <c r="C122" s="330"/>
@@ -6258,8 +6401,9 @@
       <c r="G122" s="330"/>
       <c r="H122" s="330"/>
       <c r="I122" s="330"/>
-    </row>
-    <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J122" s="330"/>
+    </row>
+    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="330"/>
       <c r="B123" s="330"/>
       <c r="C123" s="330"/>
@@ -6269,8 +6413,9 @@
       <c r="G123" s="330"/>
       <c r="H123" s="330"/>
       <c r="I123" s="330"/>
-    </row>
-    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J123" s="330"/>
+    </row>
+    <row r="124" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="330"/>
       <c r="B124" s="330"/>
       <c r="C124" s="330"/>
@@ -6280,8 +6425,9 @@
       <c r="G124" s="330"/>
       <c r="H124" s="330"/>
       <c r="I124" s="330"/>
-    </row>
-    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J124" s="330"/>
+    </row>
+    <row r="125" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="330"/>
       <c r="B125" s="330"/>
       <c r="C125" s="330"/>
@@ -6291,8 +6437,9 @@
       <c r="G125" s="330"/>
       <c r="H125" s="330"/>
       <c r="I125" s="330"/>
-    </row>
-    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J125" s="330"/>
+    </row>
+    <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="330"/>
       <c r="B126" s="330"/>
       <c r="C126" s="330"/>
@@ -6302,8 +6449,9 @@
       <c r="G126" s="330"/>
       <c r="H126" s="330"/>
       <c r="I126" s="330"/>
-    </row>
-    <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J126" s="330"/>
+    </row>
+    <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="330"/>
       <c r="B127" s="330"/>
       <c r="C127" s="330"/>
@@ -6313,8 +6461,9 @@
       <c r="G127" s="330"/>
       <c r="H127" s="330"/>
       <c r="I127" s="330"/>
-    </row>
-    <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J127" s="330"/>
+    </row>
+    <row r="128" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="330"/>
       <c r="B128" s="330"/>
       <c r="C128" s="330"/>
@@ -6324,8 +6473,9 @@
       <c r="G128" s="330"/>
       <c r="H128" s="330"/>
       <c r="I128" s="330"/>
-    </row>
-    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J128" s="330"/>
+    </row>
+    <row r="129" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="330"/>
       <c r="B129" s="330"/>
       <c r="C129" s="330"/>
@@ -6335,8 +6485,9 @@
       <c r="G129" s="330"/>
       <c r="H129" s="330"/>
       <c r="I129" s="330"/>
-    </row>
-    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J129" s="330"/>
+    </row>
+    <row r="130" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="330"/>
       <c r="B130" s="330"/>
       <c r="C130" s="330"/>
@@ -6346,8 +6497,9 @@
       <c r="G130" s="330"/>
       <c r="H130" s="330"/>
       <c r="I130" s="330"/>
-    </row>
-    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J130" s="330"/>
+    </row>
+    <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="330"/>
       <c r="B131" s="330"/>
       <c r="C131" s="330"/>
@@ -6357,8 +6509,9 @@
       <c r="G131" s="330"/>
       <c r="H131" s="330"/>
       <c r="I131" s="330"/>
-    </row>
-    <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J131" s="330"/>
+    </row>
+    <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="330"/>
       <c r="B132" s="330"/>
       <c r="C132" s="330"/>
@@ -6368,8 +6521,9 @@
       <c r="G132" s="330"/>
       <c r="H132" s="330"/>
       <c r="I132" s="330"/>
-    </row>
-    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J132" s="330"/>
+    </row>
+    <row r="133" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="330"/>
       <c r="B133" s="330"/>
       <c r="C133" s="330"/>
@@ -6379,8 +6533,9 @@
       <c r="G133" s="330"/>
       <c r="H133" s="330"/>
       <c r="I133" s="330"/>
-    </row>
-    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J133" s="330"/>
+    </row>
+    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="330"/>
       <c r="B134" s="330"/>
       <c r="C134" s="330"/>
@@ -6390,8 +6545,9 @@
       <c r="G134" s="330"/>
       <c r="H134" s="330"/>
       <c r="I134" s="330"/>
-    </row>
-    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J134" s="330"/>
+    </row>
+    <row r="135" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="330"/>
       <c r="B135" s="330"/>
       <c r="C135" s="330"/>
@@ -6401,8 +6557,9 @@
       <c r="G135" s="330"/>
       <c r="H135" s="330"/>
       <c r="I135" s="330"/>
-    </row>
-    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J135" s="330"/>
+    </row>
+    <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="330"/>
       <c r="B136" s="330"/>
       <c r="C136" s="330"/>
@@ -6412,8 +6569,9 @@
       <c r="G136" s="330"/>
       <c r="H136" s="330"/>
       <c r="I136" s="330"/>
-    </row>
-    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J136" s="330"/>
+    </row>
+    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="330"/>
       <c r="B137" s="330"/>
       <c r="C137" s="330"/>
@@ -6423,8 +6581,9 @@
       <c r="G137" s="330"/>
       <c r="H137" s="330"/>
       <c r="I137" s="330"/>
-    </row>
-    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J137" s="330"/>
+    </row>
+    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="330"/>
       <c r="B138" s="330"/>
       <c r="C138" s="330"/>
@@ -6434,8 +6593,9 @@
       <c r="G138" s="330"/>
       <c r="H138" s="330"/>
       <c r="I138" s="330"/>
-    </row>
-    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J138" s="330"/>
+    </row>
+    <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="330"/>
       <c r="B139" s="330"/>
       <c r="C139" s="330"/>
@@ -6445,8 +6605,9 @@
       <c r="G139" s="330"/>
       <c r="H139" s="330"/>
       <c r="I139" s="330"/>
-    </row>
-    <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J139" s="330"/>
+    </row>
+    <row r="140" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="330"/>
       <c r="B140" s="330"/>
       <c r="C140" s="330"/>
@@ -6456,8 +6617,9 @@
       <c r="G140" s="330"/>
       <c r="H140" s="330"/>
       <c r="I140" s="330"/>
-    </row>
-    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J140" s="330"/>
+    </row>
+    <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="330"/>
       <c r="B141" s="330"/>
       <c r="C141" s="330"/>
@@ -6467,8 +6629,9 @@
       <c r="G141" s="330"/>
       <c r="H141" s="330"/>
       <c r="I141" s="330"/>
-    </row>
-    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J141" s="330"/>
+    </row>
+    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="330"/>
       <c r="B142" s="330"/>
       <c r="C142" s="330"/>
@@ -6478,8 +6641,9 @@
       <c r="G142" s="330"/>
       <c r="H142" s="330"/>
       <c r="I142" s="330"/>
-    </row>
-    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J142" s="330"/>
+    </row>
+    <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="330"/>
       <c r="B143" s="330"/>
       <c r="C143" s="330"/>
@@ -6489,8 +6653,9 @@
       <c r="G143" s="330"/>
       <c r="H143" s="330"/>
       <c r="I143" s="330"/>
-    </row>
-    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J143" s="330"/>
+    </row>
+    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="330"/>
       <c r="B144" s="330"/>
       <c r="C144" s="330"/>
@@ -6500,8 +6665,9 @@
       <c r="G144" s="330"/>
       <c r="H144" s="330"/>
       <c r="I144" s="330"/>
-    </row>
-    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J144" s="330"/>
+    </row>
+    <row r="145" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="330"/>
       <c r="B145" s="330"/>
       <c r="C145" s="330"/>
@@ -6511,8 +6677,9 @@
       <c r="G145" s="330"/>
       <c r="H145" s="330"/>
       <c r="I145" s="330"/>
-    </row>
-    <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J145" s="330"/>
+    </row>
+    <row r="146" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="330"/>
       <c r="B146" s="330"/>
       <c r="C146" s="330"/>
@@ -6522,8 +6689,9 @@
       <c r="G146" s="330"/>
       <c r="H146" s="330"/>
       <c r="I146" s="330"/>
-    </row>
-    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J146" s="330"/>
+    </row>
+    <row r="147" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="330"/>
       <c r="B147" s="330"/>
       <c r="C147" s="330"/>
@@ -6533,8 +6701,9 @@
       <c r="G147" s="330"/>
       <c r="H147" s="330"/>
       <c r="I147" s="330"/>
-    </row>
-    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J147" s="330"/>
+    </row>
+    <row r="148" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="330"/>
       <c r="B148" s="330"/>
       <c r="C148" s="330"/>
@@ -6544,8 +6713,9 @@
       <c r="G148" s="330"/>
       <c r="H148" s="330"/>
       <c r="I148" s="330"/>
-    </row>
-    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J148" s="330"/>
+    </row>
+    <row r="149" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="330"/>
       <c r="B149" s="330"/>
       <c r="C149" s="330"/>
@@ -6555,8 +6725,9 @@
       <c r="G149" s="330"/>
       <c r="H149" s="330"/>
       <c r="I149" s="330"/>
-    </row>
-    <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J149" s="330"/>
+    </row>
+    <row r="150" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="330"/>
       <c r="B150" s="330"/>
       <c r="C150" s="330"/>
@@ -6566,8 +6737,9 @@
       <c r="G150" s="330"/>
       <c r="H150" s="330"/>
       <c r="I150" s="330"/>
-    </row>
-    <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J150" s="330"/>
+    </row>
+    <row r="151" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="330"/>
       <c r="B151" s="330"/>
       <c r="C151" s="330"/>
@@ -6577,8 +6749,9 @@
       <c r="G151" s="330"/>
       <c r="H151" s="330"/>
       <c r="I151" s="330"/>
-    </row>
-    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J151" s="330"/>
+    </row>
+    <row r="152" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="330"/>
       <c r="B152" s="330"/>
       <c r="C152" s="330"/>
@@ -6588,8 +6761,9 @@
       <c r="G152" s="330"/>
       <c r="H152" s="330"/>
       <c r="I152" s="330"/>
-    </row>
-    <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J152" s="330"/>
+    </row>
+    <row r="153" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="330"/>
       <c r="B153" s="330"/>
       <c r="C153" s="330"/>
@@ -6599,8 +6773,9 @@
       <c r="G153" s="330"/>
       <c r="H153" s="330"/>
       <c r="I153" s="330"/>
-    </row>
-    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J153" s="330"/>
+    </row>
+    <row r="154" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="330"/>
       <c r="B154" s="330"/>
       <c r="C154" s="330"/>
@@ -6610,8 +6785,9 @@
       <c r="G154" s="330"/>
       <c r="H154" s="330"/>
       <c r="I154" s="330"/>
-    </row>
-    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J154" s="330"/>
+    </row>
+    <row r="155" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="330"/>
       <c r="B155" s="330"/>
       <c r="C155" s="330"/>
@@ -6621,8 +6797,9 @@
       <c r="G155" s="330"/>
       <c r="H155" s="330"/>
       <c r="I155" s="330"/>
-    </row>
-    <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J155" s="330"/>
+    </row>
+    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="330"/>
       <c r="B156" s="330"/>
       <c r="C156" s="330"/>
@@ -6632,8 +6809,9 @@
       <c r="G156" s="330"/>
       <c r="H156" s="330"/>
       <c r="I156" s="330"/>
-    </row>
-    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J156" s="330"/>
+    </row>
+    <row r="157" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="330"/>
       <c r="B157" s="330"/>
       <c r="C157" s="330"/>
@@ -6643,8 +6821,9 @@
       <c r="G157" s="330"/>
       <c r="H157" s="330"/>
       <c r="I157" s="330"/>
-    </row>
-    <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J157" s="330"/>
+    </row>
+    <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="330"/>
       <c r="B158" s="330"/>
       <c r="C158" s="330"/>
@@ -6654,8 +6833,9 @@
       <c r="G158" s="330"/>
       <c r="H158" s="330"/>
       <c r="I158" s="330"/>
-    </row>
-    <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J158" s="330"/>
+    </row>
+    <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="330"/>
       <c r="B159" s="330"/>
       <c r="C159" s="330"/>
@@ -6665,8 +6845,9 @@
       <c r="G159" s="330"/>
       <c r="H159" s="330"/>
       <c r="I159" s="330"/>
-    </row>
-    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J159" s="330"/>
+    </row>
+    <row r="160" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="330"/>
       <c r="B160" s="330"/>
       <c r="C160" s="330"/>
@@ -6676,8 +6857,9 @@
       <c r="G160" s="330"/>
       <c r="H160" s="330"/>
       <c r="I160" s="330"/>
-    </row>
-    <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J160" s="330"/>
+    </row>
+    <row r="161" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="330"/>
       <c r="B161" s="330"/>
       <c r="C161" s="330"/>
@@ -6687,8 +6869,9 @@
       <c r="G161" s="330"/>
       <c r="H161" s="330"/>
       <c r="I161" s="330"/>
-    </row>
-    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="J161" s="330"/>
+    </row>
+    <row r="162" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="330"/>
       <c r="B162" s="330"/>
       <c r="C162" s="330"/>
@@ -6698,8 +6881,9 @@
       <c r="G162" s="330"/>
       <c r="H162" s="330"/>
       <c r="I162" s="330"/>
-    </row>
-    <row r="163" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="J162" s="330"/>
+    </row>
+    <row r="163" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A163" s="327"/>
       <c r="B163" s="327"/>
       <c r="C163" s="327"/>
@@ -6708,8 +6892,9 @@
       <c r="F163" s="327"/>
       <c r="G163" s="327"/>
       <c r="H163" s="327"/>
-    </row>
-    <row r="164" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I163" s="327"/>
+    </row>
+    <row r="164" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A164" s="327"/>
       <c r="B164" s="327"/>
       <c r="C164" s="327"/>
@@ -6718,8 +6903,9 @@
       <c r="F164" s="327"/>
       <c r="G164" s="327"/>
       <c r="H164" s="327"/>
-    </row>
-    <row r="165" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I164" s="327"/>
+    </row>
+    <row r="165" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A165" s="327"/>
       <c r="B165" s="327"/>
       <c r="C165" s="327"/>
@@ -6728,8 +6914,9 @@
       <c r="F165" s="327"/>
       <c r="G165" s="327"/>
       <c r="H165" s="327"/>
-    </row>
-    <row r="166" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I165" s="327"/>
+    </row>
+    <row r="166" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A166" s="327"/>
       <c r="B166" s="327"/>
       <c r="C166" s="327"/>
@@ -6738,8 +6925,9 @@
       <c r="F166" s="327"/>
       <c r="G166" s="327"/>
       <c r="H166" s="327"/>
-    </row>
-    <row r="167" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I166" s="327"/>
+    </row>
+    <row r="167" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A167" s="327"/>
       <c r="B167" s="327"/>
       <c r="C167" s="327"/>
@@ -6748,8 +6936,9 @@
       <c r="F167" s="327"/>
       <c r="G167" s="327"/>
       <c r="H167" s="327"/>
-    </row>
-    <row r="168" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I167" s="327"/>
+    </row>
+    <row r="168" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A168" s="327"/>
       <c r="B168" s="327"/>
       <c r="C168" s="327"/>
@@ -6758,8 +6947,9 @@
       <c r="F168" s="327"/>
       <c r="G168" s="327"/>
       <c r="H168" s="327"/>
-    </row>
-    <row r="169" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I168" s="327"/>
+    </row>
+    <row r="169" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A169" s="327"/>
       <c r="B169" s="327"/>
       <c r="C169" s="327"/>
@@ -6768,8 +6958,9 @@
       <c r="F169" s="327"/>
       <c r="G169" s="327"/>
       <c r="H169" s="327"/>
-    </row>
-    <row r="170" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I169" s="327"/>
+    </row>
+    <row r="170" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A170" s="327"/>
       <c r="B170" s="327"/>
       <c r="C170" s="327"/>
@@ -6778,8 +6969,9 @@
       <c r="F170" s="327"/>
       <c r="G170" s="327"/>
       <c r="H170" s="327"/>
-    </row>
-    <row r="171" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I170" s="327"/>
+    </row>
+    <row r="171" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A171" s="327"/>
       <c r="B171" s="327"/>
       <c r="C171" s="327"/>
@@ -6788,8 +6980,9 @@
       <c r="F171" s="327"/>
       <c r="G171" s="327"/>
       <c r="H171" s="327"/>
-    </row>
-    <row r="172" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I171" s="327"/>
+    </row>
+    <row r="172" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A172" s="327"/>
       <c r="B172" s="327"/>
       <c r="C172" s="327"/>
@@ -6798,8 +6991,9 @@
       <c r="F172" s="327"/>
       <c r="G172" s="327"/>
       <c r="H172" s="327"/>
-    </row>
-    <row r="173" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I172" s="327"/>
+    </row>
+    <row r="173" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A173" s="327"/>
       <c r="B173" s="327"/>
       <c r="C173" s="327"/>
@@ -6808,8 +7002,9 @@
       <c r="F173" s="327"/>
       <c r="G173" s="327"/>
       <c r="H173" s="327"/>
-    </row>
-    <row r="174" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I173" s="327"/>
+    </row>
+    <row r="174" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A174" s="327"/>
       <c r="B174" s="327"/>
       <c r="C174" s="327"/>
@@ -6818,8 +7013,9 @@
       <c r="F174" s="327"/>
       <c r="G174" s="327"/>
       <c r="H174" s="327"/>
-    </row>
-    <row r="175" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I174" s="327"/>
+    </row>
+    <row r="175" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A175" s="327"/>
       <c r="B175" s="327"/>
       <c r="C175" s="327"/>
@@ -6828,8 +7024,9 @@
       <c r="F175" s="327"/>
       <c r="G175" s="327"/>
       <c r="H175" s="327"/>
-    </row>
-    <row r="176" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I175" s="327"/>
+    </row>
+    <row r="176" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A176" s="327"/>
       <c r="B176" s="327"/>
       <c r="C176" s="327"/>
@@ -6838,8 +7035,9 @@
       <c r="F176" s="327"/>
       <c r="G176" s="327"/>
       <c r="H176" s="327"/>
-    </row>
-    <row r="177" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I176" s="327"/>
+    </row>
+    <row r="177" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A177" s="327"/>
       <c r="B177" s="327"/>
       <c r="C177" s="327"/>
@@ -6848,8 +7046,9 @@
       <c r="F177" s="327"/>
       <c r="G177" s="327"/>
       <c r="H177" s="327"/>
-    </row>
-    <row r="178" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I177" s="327"/>
+    </row>
+    <row r="178" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A178" s="327"/>
       <c r="B178" s="327"/>
       <c r="C178" s="327"/>
@@ -6858,8 +7057,9 @@
       <c r="F178" s="327"/>
       <c r="G178" s="327"/>
       <c r="H178" s="327"/>
-    </row>
-    <row r="179" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I178" s="327"/>
+    </row>
+    <row r="179" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A179" s="327"/>
       <c r="B179" s="327"/>
       <c r="C179" s="327"/>
@@ -6868,8 +7068,9 @@
       <c r="F179" s="327"/>
       <c r="G179" s="327"/>
       <c r="H179" s="327"/>
-    </row>
-    <row r="180" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I179" s="327"/>
+    </row>
+    <row r="180" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A180" s="327"/>
       <c r="B180" s="327"/>
       <c r="C180" s="327"/>
@@ -6878,8 +7079,9 @@
       <c r="F180" s="327"/>
       <c r="G180" s="327"/>
       <c r="H180" s="327"/>
-    </row>
-    <row r="181" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I180" s="327"/>
+    </row>
+    <row r="181" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A181" s="327"/>
       <c r="B181" s="327"/>
       <c r="C181" s="327"/>
@@ -6888,8 +7090,9 @@
       <c r="F181" s="327"/>
       <c r="G181" s="327"/>
       <c r="H181" s="327"/>
-    </row>
-    <row r="182" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I181" s="327"/>
+    </row>
+    <row r="182" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A182" s="327"/>
       <c r="B182" s="327"/>
       <c r="C182" s="327"/>
@@ -6898,8 +7101,9 @@
       <c r="F182" s="327"/>
       <c r="G182" s="327"/>
       <c r="H182" s="327"/>
-    </row>
-    <row r="183" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I182" s="327"/>
+    </row>
+    <row r="183" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A183" s="327"/>
       <c r="B183" s="327"/>
       <c r="C183" s="327"/>
@@ -6908,8 +7112,9 @@
       <c r="F183" s="327"/>
       <c r="G183" s="327"/>
       <c r="H183" s="327"/>
-    </row>
-    <row r="184" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I183" s="327"/>
+    </row>
+    <row r="184" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A184" s="327"/>
       <c r="B184" s="327"/>
       <c r="C184" s="327"/>
@@ -6918,8 +7123,9 @@
       <c r="F184" s="327"/>
       <c r="G184" s="327"/>
       <c r="H184" s="327"/>
-    </row>
-    <row r="185" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I184" s="327"/>
+    </row>
+    <row r="185" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A185" s="327"/>
       <c r="B185" s="327"/>
       <c r="C185" s="327"/>
@@ -6928,8 +7134,9 @@
       <c r="F185" s="327"/>
       <c r="G185" s="327"/>
       <c r="H185" s="327"/>
-    </row>
-    <row r="186" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I185" s="327"/>
+    </row>
+    <row r="186" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A186" s="327"/>
       <c r="B186" s="327"/>
       <c r="C186" s="327"/>
@@ -6938,8 +7145,9 @@
       <c r="F186" s="327"/>
       <c r="G186" s="327"/>
       <c r="H186" s="327"/>
-    </row>
-    <row r="187" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I186" s="327"/>
+    </row>
+    <row r="187" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A187" s="327"/>
       <c r="B187" s="327"/>
       <c r="C187" s="327"/>
@@ -6948,8 +7156,9 @@
       <c r="F187" s="327"/>
       <c r="G187" s="327"/>
       <c r="H187" s="327"/>
-    </row>
-    <row r="188" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I187" s="327"/>
+    </row>
+    <row r="188" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A188" s="327"/>
       <c r="B188" s="327"/>
       <c r="C188" s="327"/>
@@ -6958,8 +7167,9 @@
       <c r="F188" s="327"/>
       <c r="G188" s="327"/>
       <c r="H188" s="327"/>
-    </row>
-    <row r="189" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I188" s="327"/>
+    </row>
+    <row r="189" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A189" s="327"/>
       <c r="B189" s="327"/>
       <c r="C189" s="327"/>
@@ -6968,8 +7178,9 @@
       <c r="F189" s="327"/>
       <c r="G189" s="327"/>
       <c r="H189" s="327"/>
-    </row>
-    <row r="190" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I189" s="327"/>
+    </row>
+    <row r="190" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A190" s="327"/>
       <c r="B190" s="327"/>
       <c r="C190" s="327"/>
@@ -6978,8 +7189,9 @@
       <c r="F190" s="327"/>
       <c r="G190" s="327"/>
       <c r="H190" s="327"/>
-    </row>
-    <row r="191" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I190" s="327"/>
+    </row>
+    <row r="191" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A191" s="327"/>
       <c r="B191" s="327"/>
       <c r="C191" s="327"/>
@@ -6988,8 +7200,9 @@
       <c r="F191" s="327"/>
       <c r="G191" s="327"/>
       <c r="H191" s="327"/>
-    </row>
-    <row r="192" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I191" s="327"/>
+    </row>
+    <row r="192" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A192" s="327"/>
       <c r="B192" s="327"/>
       <c r="C192" s="327"/>
@@ -6998,8 +7211,9 @@
       <c r="F192" s="327"/>
       <c r="G192" s="327"/>
       <c r="H192" s="327"/>
-    </row>
-    <row r="193" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I192" s="327"/>
+    </row>
+    <row r="193" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A193" s="327"/>
       <c r="B193" s="327"/>
       <c r="C193" s="327"/>
@@ -7008,8 +7222,9 @@
       <c r="F193" s="327"/>
       <c r="G193" s="327"/>
       <c r="H193" s="327"/>
-    </row>
-    <row r="194" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I193" s="327"/>
+    </row>
+    <row r="194" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A194" s="327"/>
       <c r="B194" s="327"/>
       <c r="C194" s="327"/>
@@ -7018,8 +7233,9 @@
       <c r="F194" s="327"/>
       <c r="G194" s="327"/>
       <c r="H194" s="327"/>
-    </row>
-    <row r="195" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I194" s="327"/>
+    </row>
+    <row r="195" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A195" s="327"/>
       <c r="B195" s="327"/>
       <c r="C195" s="327"/>
@@ -7028,8 +7244,9 @@
       <c r="F195" s="327"/>
       <c r="G195" s="327"/>
       <c r="H195" s="327"/>
-    </row>
-    <row r="196" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I195" s="327"/>
+    </row>
+    <row r="196" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A196" s="327"/>
       <c r="B196" s="327"/>
       <c r="C196" s="327"/>
@@ -7038,8 +7255,9 @@
       <c r="F196" s="327"/>
       <c r="G196" s="327"/>
       <c r="H196" s="327"/>
-    </row>
-    <row r="197" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I196" s="327"/>
+    </row>
+    <row r="197" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A197" s="327"/>
       <c r="B197" s="327"/>
       <c r="C197" s="327"/>
@@ -7048,8 +7266,9 @@
       <c r="F197" s="327"/>
       <c r="G197" s="327"/>
       <c r="H197" s="327"/>
-    </row>
-    <row r="198" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I197" s="327"/>
+    </row>
+    <row r="198" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A198" s="327"/>
       <c r="B198" s="327"/>
       <c r="C198" s="327"/>
@@ -7058,8 +7277,9 @@
       <c r="F198" s="327"/>
       <c r="G198" s="327"/>
       <c r="H198" s="327"/>
-    </row>
-    <row r="199" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I198" s="327"/>
+    </row>
+    <row r="199" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A199" s="327"/>
       <c r="B199" s="327"/>
       <c r="C199" s="327"/>
@@ -7068,8 +7288,9 @@
       <c r="F199" s="327"/>
       <c r="G199" s="327"/>
       <c r="H199" s="327"/>
-    </row>
-    <row r="200" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I199" s="327"/>
+    </row>
+    <row r="200" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A200" s="327"/>
       <c r="B200" s="327"/>
       <c r="C200" s="327"/>
@@ -7078,8 +7299,9 @@
       <c r="F200" s="327"/>
       <c r="G200" s="327"/>
       <c r="H200" s="327"/>
-    </row>
-    <row r="201" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I200" s="327"/>
+    </row>
+    <row r="201" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A201" s="327"/>
       <c r="B201" s="327"/>
       <c r="C201" s="327"/>
@@ -7088,8 +7310,9 @@
       <c r="F201" s="327"/>
       <c r="G201" s="327"/>
       <c r="H201" s="327"/>
-    </row>
-    <row r="202" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I201" s="327"/>
+    </row>
+    <row r="202" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A202" s="327"/>
       <c r="B202" s="327"/>
       <c r="C202" s="327"/>
@@ -7098,8 +7321,9 @@
       <c r="F202" s="327"/>
       <c r="G202" s="327"/>
       <c r="H202" s="327"/>
-    </row>
-    <row r="203" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I202" s="327"/>
+    </row>
+    <row r="203" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A203" s="327"/>
       <c r="B203" s="327"/>
       <c r="C203" s="327"/>
@@ -7108,8 +7332,9 @@
       <c r="F203" s="327"/>
       <c r="G203" s="327"/>
       <c r="H203" s="327"/>
-    </row>
-    <row r="204" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I203" s="327"/>
+    </row>
+    <row r="204" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A204" s="327"/>
       <c r="B204" s="327"/>
       <c r="C204" s="327"/>
@@ -7118,8 +7343,9 @@
       <c r="F204" s="327"/>
       <c r="G204" s="327"/>
       <c r="H204" s="327"/>
-    </row>
-    <row r="205" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I204" s="327"/>
+    </row>
+    <row r="205" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A205" s="327"/>
       <c r="B205" s="327"/>
       <c r="C205" s="327"/>
@@ -7128,8 +7354,9 @@
       <c r="F205" s="327"/>
       <c r="G205" s="327"/>
       <c r="H205" s="327"/>
-    </row>
-    <row r="206" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I205" s="327"/>
+    </row>
+    <row r="206" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A206" s="327"/>
       <c r="B206" s="327"/>
       <c r="C206" s="327"/>
@@ -7138,8 +7365,9 @@
       <c r="F206" s="327"/>
       <c r="G206" s="327"/>
       <c r="H206" s="327"/>
-    </row>
-    <row r="207" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I206" s="327"/>
+    </row>
+    <row r="207" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A207" s="327"/>
       <c r="B207" s="327"/>
       <c r="C207" s="327"/>
@@ -7148,8 +7376,9 @@
       <c r="F207" s="327"/>
       <c r="G207" s="327"/>
       <c r="H207" s="327"/>
-    </row>
-    <row r="208" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I207" s="327"/>
+    </row>
+    <row r="208" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A208" s="327"/>
       <c r="B208" s="327"/>
       <c r="C208" s="327"/>
@@ -7158,8 +7387,9 @@
       <c r="F208" s="327"/>
       <c r="G208" s="327"/>
       <c r="H208" s="327"/>
-    </row>
-    <row r="209" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I208" s="327"/>
+    </row>
+    <row r="209" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A209" s="327"/>
       <c r="B209" s="327"/>
       <c r="C209" s="327"/>
@@ -7168,8 +7398,9 @@
       <c r="F209" s="327"/>
       <c r="G209" s="327"/>
       <c r="H209" s="327"/>
-    </row>
-    <row r="210" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I209" s="327"/>
+    </row>
+    <row r="210" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A210" s="327"/>
       <c r="B210" s="327"/>
       <c r="C210" s="327"/>
@@ -7178,8 +7409,9 @@
       <c r="F210" s="327"/>
       <c r="G210" s="327"/>
       <c r="H210" s="327"/>
-    </row>
-    <row r="211" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I210" s="327"/>
+    </row>
+    <row r="211" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A211" s="327"/>
       <c r="B211" s="327"/>
       <c r="C211" s="327"/>
@@ -7188,8 +7420,9 @@
       <c r="F211" s="327"/>
       <c r="G211" s="327"/>
       <c r="H211" s="327"/>
-    </row>
-    <row r="212" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I211" s="327"/>
+    </row>
+    <row r="212" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A212" s="327"/>
       <c r="B212" s="327"/>
       <c r="C212" s="327"/>
@@ -7198,8 +7431,9 @@
       <c r="F212" s="327"/>
       <c r="G212" s="327"/>
       <c r="H212" s="327"/>
-    </row>
-    <row r="213" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I212" s="327"/>
+    </row>
+    <row r="213" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A213" s="327"/>
       <c r="B213" s="327"/>
       <c r="C213" s="327"/>
@@ -7208,8 +7442,9 @@
       <c r="F213" s="327"/>
       <c r="G213" s="327"/>
       <c r="H213" s="327"/>
-    </row>
-    <row r="214" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I213" s="327"/>
+    </row>
+    <row r="214" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A214" s="327"/>
       <c r="B214" s="327"/>
       <c r="C214" s="327"/>
@@ -7218,8 +7453,9 @@
       <c r="F214" s="327"/>
       <c r="G214" s="327"/>
       <c r="H214" s="327"/>
-    </row>
-    <row r="215" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I214" s="327"/>
+    </row>
+    <row r="215" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A215" s="327"/>
       <c r="B215" s="327"/>
       <c r="C215" s="327"/>
@@ -7228,8 +7464,9 @@
       <c r="F215" s="327"/>
       <c r="G215" s="327"/>
       <c r="H215" s="327"/>
-    </row>
-    <row r="216" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I215" s="327"/>
+    </row>
+    <row r="216" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A216" s="327"/>
       <c r="B216" s="327"/>
       <c r="C216" s="327"/>
@@ -7238,8 +7475,9 @@
       <c r="F216" s="327"/>
       <c r="G216" s="327"/>
       <c r="H216" s="327"/>
-    </row>
-    <row r="217" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I216" s="327"/>
+    </row>
+    <row r="217" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A217" s="327"/>
       <c r="B217" s="327"/>
       <c r="C217" s="327"/>
@@ -7248,8 +7486,9 @@
       <c r="F217" s="327"/>
       <c r="G217" s="327"/>
       <c r="H217" s="327"/>
-    </row>
-    <row r="218" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I217" s="327"/>
+    </row>
+    <row r="218" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A218" s="327"/>
       <c r="B218" s="327"/>
       <c r="C218" s="327"/>
@@ -7258,8 +7497,9 @@
       <c r="F218" s="327"/>
       <c r="G218" s="327"/>
       <c r="H218" s="327"/>
-    </row>
-    <row r="219" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I218" s="327"/>
+    </row>
+    <row r="219" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A219" s="327"/>
       <c r="B219" s="327"/>
       <c r="C219" s="327"/>
@@ -7268,8 +7508,9 @@
       <c r="F219" s="327"/>
       <c r="G219" s="327"/>
       <c r="H219" s="327"/>
-    </row>
-    <row r="220" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I219" s="327"/>
+    </row>
+    <row r="220" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A220" s="327"/>
       <c r="B220" s="327"/>
       <c r="C220" s="327"/>
@@ -7278,8 +7519,9 @@
       <c r="F220" s="327"/>
       <c r="G220" s="327"/>
       <c r="H220" s="327"/>
-    </row>
-    <row r="221" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I220" s="327"/>
+    </row>
+    <row r="221" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A221" s="327"/>
       <c r="B221" s="327"/>
       <c r="C221" s="327"/>
@@ -7288,8 +7530,9 @@
       <c r="F221" s="327"/>
       <c r="G221" s="327"/>
       <c r="H221" s="327"/>
-    </row>
-    <row r="222" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I221" s="327"/>
+    </row>
+    <row r="222" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A222" s="327"/>
       <c r="B222" s="327"/>
       <c r="C222" s="327"/>
@@ -7298,8 +7541,9 @@
       <c r="F222" s="327"/>
       <c r="G222" s="327"/>
       <c r="H222" s="327"/>
-    </row>
-    <row r="223" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I222" s="327"/>
+    </row>
+    <row r="223" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A223" s="327"/>
       <c r="B223" s="327"/>
       <c r="C223" s="327"/>
@@ -7308,8 +7552,9 @@
       <c r="F223" s="327"/>
       <c r="G223" s="327"/>
       <c r="H223" s="327"/>
-    </row>
-    <row r="224" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I223" s="327"/>
+    </row>
+    <row r="224" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A224" s="327"/>
       <c r="B224" s="327"/>
       <c r="C224" s="327"/>
@@ -7318,8 +7563,9 @@
       <c r="F224" s="327"/>
       <c r="G224" s="327"/>
       <c r="H224" s="327"/>
-    </row>
-    <row r="225" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I224" s="327"/>
+    </row>
+    <row r="225" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A225" s="327"/>
       <c r="B225" s="327"/>
       <c r="C225" s="327"/>
@@ -7328,8 +7574,9 @@
       <c r="F225" s="327"/>
       <c r="G225" s="327"/>
       <c r="H225" s="327"/>
-    </row>
-    <row r="226" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I225" s="327"/>
+    </row>
+    <row r="226" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A226" s="327"/>
       <c r="B226" s="327"/>
       <c r="C226" s="327"/>
@@ -7338,8 +7585,9 @@
       <c r="F226" s="327"/>
       <c r="G226" s="327"/>
       <c r="H226" s="327"/>
-    </row>
-    <row r="227" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I226" s="327"/>
+    </row>
+    <row r="227" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A227" s="327"/>
       <c r="B227" s="327"/>
       <c r="C227" s="327"/>
@@ -7348,18 +7596,19 @@
       <c r="F227" s="327"/>
       <c r="G227" s="327"/>
       <c r="H227" s="327"/>
+      <c r="I227" s="327"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C22:G22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="F13 D13 B13" numberStoredAsText="1"/>
+    <ignoredError sqref="G13 D13 B13" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -7370,21 +7619,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:F26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.46484375" style="93" customWidth="1"/>
-    <col min="2" max="2" width="16.53125" style="97" customWidth="1"/>
-    <col min="3" max="7" width="14.53125" style="97" customWidth="1"/>
-    <col min="8" max="16384" width="9.19921875" style="93"/>
+    <col min="1" max="1" width="39.42578125" style="93" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="97" customWidth="1"/>
+    <col min="3" max="8" width="14.5703125" style="97" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -7393,16 +7642,18 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.35">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -7412,9 +7663,10 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -7422,9 +7674,10 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>93</v>
       </c>
@@ -7433,10 +7686,11 @@
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="G5" s="39"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -7444,9 +7698,10 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -7455,20 +7710,22 @@
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="G7" s="39"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G8" s="40"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -7476,35 +7733,38 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="452" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="444" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="453"/>
-      <c r="C10" s="453"/>
-      <c r="D10" s="453"/>
-      <c r="E10" s="453"/>
-      <c r="F10" s="453"/>
-      <c r="G10" s="454"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" s="112" customFormat="1" ht="30.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="445"/>
+      <c r="C10" s="445"/>
+      <c r="D10" s="445"/>
+      <c r="E10" s="445"/>
+      <c r="F10" s="445"/>
+      <c r="G10" s="445"/>
+      <c r="H10" s="446"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" s="112" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="115"/>
       <c r="B11" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="455" t="s">
+      <c r="C11" s="447" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="455"/>
-      <c r="E11" s="455"/>
-      <c r="F11" s="455"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="113"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="447"/>
+      <c r="E11" s="447"/>
+      <c r="F11" s="447"/>
+      <c r="G11" s="447"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="113"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="118" t="s">
         <v>21</v>
       </c>
@@ -7523,12 +7783,15 @@
       <c r="F12" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="120" t="s">
         <v>54</v>
       </c>
@@ -7547,12 +7810,15 @@
       <c r="F13" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="107" t="s">
+      <c r="G13" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H13" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="138" t="s">
         <v>60</v>
       </c>
@@ -7576,13 +7842,17 @@
         <f>+'6. Non-staff costs leveraged  '!H44</f>
         <v>0</v>
       </c>
-      <c r="G14" s="124">
-        <f>SUM(B14:F14)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G14" s="123">
+        <f>+'6. Non-staff costs leveraged  '!I44</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="124">
+        <f>SUM(B14:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="139" t="s">
         <v>61</v>
       </c>
@@ -7606,13 +7876,17 @@
         <f>+'6. Non-staff costs leveraged  '!H53</f>
         <v>0</v>
       </c>
-      <c r="G15" s="124">
-        <f>SUM(B15:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G15" s="123">
+        <f>+'6. Non-staff costs leveraged  '!I53</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="124">
+        <f>SUM(B15:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="140" t="s">
         <v>9</v>
       </c>
@@ -7621,13 +7895,14 @@
       <c r="D16" s="75"/>
       <c r="E16" s="76"/>
       <c r="F16" s="77"/>
-      <c r="G16" s="128">
-        <f>SUM(B16:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G16" s="77"/>
+      <c r="H16" s="128">
+        <f>SUM(B16:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="141" t="s">
         <v>10</v>
       </c>
@@ -7651,13 +7926,17 @@
         <f>SUM(F14:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="127">
-        <f>SUM(B17:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="G17" s="126">
+        <f>SUM(G14:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="127">
+        <f>SUM(B17:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
@@ -7665,9 +7944,10 @@
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H18" s="48"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -7675,25 +7955,27 @@
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:8" ht="38.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H19" s="46"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="114" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="455" t="s">
+      <c r="C20" s="447" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="455"/>
-      <c r="E20" s="455"/>
-      <c r="F20" s="455"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="447"/>
+      <c r="E20" s="447"/>
+      <c r="F20" s="447"/>
+      <c r="G20" s="447"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="118" t="s">
         <v>21</v>
       </c>
@@ -7712,12 +7994,15 @@
       <c r="F21" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="131" t="s">
         <v>54</v>
       </c>
@@ -7736,12 +8021,15 @@
       <c r="F22" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="107" t="s">
+      <c r="G22" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="148" t="s">
         <v>62</v>
       </c>
@@ -7750,13 +8038,14 @@
       <c r="D23" s="71"/>
       <c r="E23" s="71"/>
       <c r="F23" s="72"/>
-      <c r="G23" s="132">
-        <f t="shared" ref="G23:G27" si="1">SUM(B23:F23)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G23" s="72"/>
+      <c r="H23" s="132">
+        <f t="shared" ref="H23:H27" si="1">SUM(B23:G23)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="148" t="s">
         <v>63</v>
       </c>
@@ -7765,13 +8054,14 @@
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
       <c r="F24" s="72"/>
-      <c r="G24" s="132">
+      <c r="G24" s="72"/>
+      <c r="H24" s="132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="148" t="s">
         <v>154</v>
       </c>
@@ -7780,13 +8070,14 @@
       <c r="D25" s="71"/>
       <c r="E25" s="71"/>
       <c r="F25" s="72"/>
-      <c r="G25" s="132">
+      <c r="G25" s="72"/>
+      <c r="H25" s="132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="149" t="s">
         <v>6</v>
       </c>
@@ -7795,13 +8086,14 @@
       <c r="D26" s="73"/>
       <c r="E26" s="73"/>
       <c r="F26" s="74"/>
-      <c r="G26" s="133">
+      <c r="G26" s="74"/>
+      <c r="H26" s="133">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="150" t="s">
         <v>64</v>
       </c>
@@ -7825,13 +8117,17 @@
         <f>SUM(F23:F26)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="134">
+      <c r="G27" s="136">
+        <f>SUM(G23:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="42"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -7839,29 +8135,32 @@
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="H28" s="43"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="44"/>
       <c r="B29" s="45"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="G29" s="45"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="44"/>
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="G30" s="45"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -7869,9 +8168,10 @@
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -7879,9 +8179,10 @@
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -7889,9 +8190,10 @@
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -7899,9 +8201,10 @@
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -7909,16 +8212,17 @@
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.27559055118110237" bottom="0.23622047244094491" header="0.27559055118110237" footer="0.51181102362204722"/>
@@ -7928,7 +8232,7 @@
     <brk id="9" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="E13:G13 B13" numberStoredAsText="1"/>
+    <ignoredError sqref="G13:H13 B13 E13" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -7939,24 +8243,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:J24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.53125" customWidth="1"/>
-    <col min="2" max="2" width="17.796875" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" customWidth="1"/>
-    <col min="5" max="5" width="12.46484375" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" customWidth="1"/>
-    <col min="7" max="9" width="10.53125" customWidth="1"/>
-    <col min="10" max="10" width="13.73046875" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.649999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -7967,9 +8271,10 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I1" s="2"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -7978,10 +8283,11 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>94</v>
       </c>
@@ -7992,9 +8298,10 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -8003,9 +8310,10 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.4">
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>85</v>
       </c>
@@ -8013,19 +8321,19 @@
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
-      <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.4">
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
-      <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.4">
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -8033,10 +8341,10 @@
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
-      <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.4">
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>65</v>
       </c>
@@ -8049,8 +8357,9 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.4">
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="90" t="s">
         <v>129</v>
       </c>
@@ -8063,8 +8372,9 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
         <v>66</v>
       </c>
@@ -8077,8 +8387,9 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="157" t="s">
         <v>95</v>
       </c>
@@ -8088,29 +8399,31 @@
       <c r="E11" s="129"/>
       <c r="F11" s="129"/>
       <c r="G11" s="129"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="163"/>
-    </row>
-    <row r="12" spans="1:10" ht="30.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="163"/>
+    </row>
+    <row r="12" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101"/>
       <c r="B12" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="456" t="s">
+      <c r="C12" s="448" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="457"/>
-      <c r="E12" s="457"/>
-      <c r="F12" s="457"/>
-      <c r="G12" s="457"/>
-      <c r="H12" s="458"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="117" t="s">
+      <c r="D12" s="449"/>
+      <c r="E12" s="449"/>
+      <c r="F12" s="449"/>
+      <c r="G12" s="449"/>
+      <c r="H12" s="449"/>
+      <c r="I12" s="450"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="117" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="102" t="s">
         <v>68</v>
       </c>
@@ -8132,13 +8445,16 @@
       <c r="G13" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="106" t="s">
+      <c r="H13" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="103"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.4">
+      <c r="I13" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="103"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="131" t="s">
         <v>67</v>
       </c>
@@ -8152,11 +8468,12 @@
       <c r="E14" s="109"/>
       <c r="F14" s="109"/>
       <c r="G14" s="109"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="177"/>
-    </row>
-    <row r="15" spans="1:10" s="248" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="H14" s="109"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="177"/>
+    </row>
+    <row r="15" spans="1:11" s="248" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="266" t="s">
         <v>32</v>
       </c>
@@ -8178,15 +8495,18 @@
       <c r="G15" s="255">
         <v>1</v>
       </c>
-      <c r="H15" s="256">
+      <c r="H15" s="255">
         <v>1</v>
       </c>
-      <c r="I15" s="257"/>
-      <c r="J15" s="258">
+      <c r="I15" s="256">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.4">
+      <c r="J15" s="257"/>
+      <c r="K15" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="170"/>
       <c r="B16" s="175"/>
       <c r="C16" s="66"/>
@@ -8194,11 +8514,12 @@
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="59"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.4">
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="59"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="170"/>
       <c r="B17" s="175"/>
       <c r="C17" s="66"/>
@@ -8206,11 +8527,12 @@
       <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="59"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="59"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="171"/>
       <c r="B18" s="176"/>
       <c r="C18" s="67"/>
@@ -8218,11 +8540,12 @@
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="60"/>
-    </row>
-    <row r="19" spans="1:10" s="248" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="60"/>
+    </row>
+    <row r="19" spans="1:11" s="248" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="270" t="s">
         <v>42</v>
       </c>
@@ -8232,11 +8555,12 @@
       <c r="E19" s="273"/>
       <c r="F19" s="273"/>
       <c r="G19" s="273"/>
-      <c r="H19" s="274"/>
-      <c r="I19" s="257"/>
-      <c r="J19" s="275"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H19" s="273"/>
+      <c r="I19" s="274"/>
+      <c r="J19" s="257"/>
+      <c r="K19" s="275"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="110" t="s">
         <v>33</v>
       </c>
@@ -8258,75 +8582,83 @@
         <f>SUM(G16:G19)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="167">
+      <c r="H20" s="166">
         <f>SUM(H16:H19)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="168">
-        <f>SUM(J16:J19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I20" s="167">
+        <f>SUM(I16:I19)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="168">
+        <f>SUM(K16:K19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="174"/>
       <c r="B21" s="174"/>
       <c r="C21" s="174"/>
-      <c r="J21" s="61"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K21" s="61"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="110" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="436"/>
-      <c r="C22" s="439"/>
-      <c r="D22" s="439"/>
-      <c r="E22" s="440"/>
-      <c r="F22" s="440"/>
-      <c r="G22" s="440"/>
-      <c r="H22" s="441"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="442"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="428"/>
+      <c r="C22" s="431"/>
+      <c r="D22" s="431"/>
+      <c r="E22" s="432"/>
+      <c r="F22" s="432"/>
+      <c r="G22" s="432"/>
+      <c r="H22" s="432"/>
+      <c r="I22" s="433"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="434"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="174"/>
-      <c r="B23" s="443"/>
-      <c r="C23" s="443"/>
+      <c r="B23" s="435"/>
+      <c r="C23" s="435"/>
       <c r="D23" s="93"/>
       <c r="E23" s="99"/>
       <c r="F23" s="99"/>
       <c r="G23" s="99"/>
       <c r="H23" s="99"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="437"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="99"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="429"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="110" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="436"/>
-      <c r="C24" s="439"/>
-      <c r="D24" s="439"/>
-      <c r="E24" s="440"/>
-      <c r="F24" s="440"/>
-      <c r="G24" s="440"/>
-      <c r="H24" s="441"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="442"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="428"/>
+      <c r="C24" s="431"/>
+      <c r="D24" s="431"/>
+      <c r="E24" s="432"/>
+      <c r="F24" s="432"/>
+      <c r="G24" s="432"/>
+      <c r="H24" s="432"/>
+      <c r="I24" s="433"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="434"/>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="174"/>
-      <c r="B25" s="443"/>
-      <c r="C25" s="443"/>
+      <c r="B25" s="435"/>
+      <c r="C25" s="435"/>
       <c r="D25" s="93"/>
       <c r="E25" s="99"/>
       <c r="F25" s="99"/>
       <c r="G25" s="99"/>
       <c r="H25" s="99"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="437"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="99"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="429"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="110" t="s">
         <v>162</v>
       </c>
@@ -8341,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="169">
-        <f t="shared" ref="F26:H26" si="0" xml:space="preserve"> SUM(F22,F24)</f>
+        <f t="shared" ref="F26:I26" si="0" xml:space="preserve"> SUM(F22,F24)</f>
         <v>0</v>
       </c>
       <c r="G26" s="169">
@@ -8349,18 +8681,22 @@
         <v>0</v>
       </c>
       <c r="H26" s="169">
+        <f t="shared" ref="H26" si="1" xml:space="preserve"> SUM(H22,H24)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="169">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="438">
-        <f xml:space="preserve"> SUM(J22,J24)</f>
+      <c r="J26" s="20"/>
+      <c r="K26" s="430">
+        <f xml:space="preserve"> SUM(K22,K24)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
@@ -8372,24 +8708,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.796875" style="93" customWidth="1"/>
-    <col min="2" max="2" width="14.53125" style="93" customWidth="1"/>
-    <col min="3" max="4" width="8.53125" style="93" customWidth="1"/>
-    <col min="5" max="6" width="8.53125" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.46484375" style="93" customWidth="1"/>
-    <col min="8" max="8" width="66" style="93" customWidth="1"/>
-    <col min="9" max="16384" width="9.19921875" style="93"/>
+    <col min="1" max="1" width="47.85546875" style="93" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="93" customWidth="1"/>
+    <col min="3" max="4" width="8.5703125" style="93" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="93" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="93" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.42578125" style="93" customWidth="1"/>
+    <col min="9" max="9" width="66" style="93" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.649999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -8397,13 +8735,13 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="17.649999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>96</v>
       </c>
@@ -8413,8 +8751,9 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -8422,8 +8761,9 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>85</v>
       </c>
@@ -8433,8 +8773,9 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -8442,8 +8783,9 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -8453,8 +8795,9 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -8462,8 +8805,9 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" s="94" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" s="94" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>130</v>
       </c>
@@ -8472,9 +8816,10 @@
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" s="94" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" s="94" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>79</v>
       </c>
@@ -8483,39 +8828,43 @@
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" s="94" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="G10" s="23"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" s="94" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G11" s="23"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F12" s="14"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="188"/>
       <c r="B13" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="459" t="s">
+      <c r="C13" s="451" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="460"/>
-      <c r="E13" s="460"/>
-      <c r="F13" s="461"/>
-      <c r="G13" s="189"/>
-    </row>
-    <row r="14" spans="1:7" s="95" customFormat="1" ht="26.65" x14ac:dyDescent="0.35">
+      <c r="D13" s="452"/>
+      <c r="E13" s="452"/>
+      <c r="F13" s="452"/>
+      <c r="G13" s="453"/>
+      <c r="H13" s="189"/>
+    </row>
+    <row r="14" spans="1:8" s="95" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A14" s="304" t="s">
         <v>80</v>
       </c>
@@ -8534,11 +8883,14 @@
       <c r="F14" s="187" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="305" t="s">
+      <c r="G14" s="187" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="305" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A15" s="306"/>
       <c r="B15" s="192" t="s">
         <v>4</v>
@@ -8555,9 +8907,12 @@
       <c r="F15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="307"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="G15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="307"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="308" t="s">
         <v>46</v>
       </c>
@@ -8566,9 +8921,10 @@
       <c r="D16" s="96"/>
       <c r="E16" s="96"/>
       <c r="F16" s="96"/>
-      <c r="G16" s="309"/>
-    </row>
-    <row r="17" spans="1:7" s="248" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="G16" s="96"/>
+      <c r="H16" s="309"/>
+    </row>
+    <row r="17" spans="1:8" s="248" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A17" s="266" t="s">
         <v>165</v>
       </c>
@@ -8579,38 +8935,42 @@
         <v>1000</v>
       </c>
       <c r="F17" s="246"/>
-      <c r="G17" s="310" t="s">
+      <c r="G17" s="246"/>
+      <c r="H17" s="310" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A18" s="311"/>
       <c r="B18" s="184"/>
       <c r="C18" s="181"/>
       <c r="D18" s="69"/>
       <c r="E18" s="69"/>
       <c r="F18" s="69"/>
-      <c r="G18" s="312"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="G18" s="69"/>
+      <c r="H18" s="312"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A19" s="311"/>
       <c r="B19" s="184"/>
       <c r="C19" s="181"/>
       <c r="D19" s="69"/>
       <c r="E19" s="69"/>
       <c r="F19" s="69"/>
-      <c r="G19" s="312"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="G19" s="69"/>
+      <c r="H19" s="312"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A20" s="311"/>
       <c r="B20" s="184"/>
       <c r="C20" s="181"/>
       <c r="D20" s="69"/>
       <c r="E20" s="69"/>
       <c r="F20" s="69"/>
-      <c r="G20" s="312"/>
-    </row>
-    <row r="21" spans="1:7" s="248" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G20" s="69"/>
+      <c r="H20" s="312"/>
+    </row>
+    <row r="21" spans="1:8" s="248" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="262" t="s">
         <v>42</v>
       </c>
@@ -8619,9 +8979,10 @@
       <c r="D21" s="265"/>
       <c r="E21" s="265"/>
       <c r="F21" s="265"/>
-      <c r="G21" s="313"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G21" s="265"/>
+      <c r="H21" s="313"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="194" t="s">
         <v>75</v>
       </c>
@@ -8645,10 +9006,14 @@
         <f>SUM(F18:F21)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="196"/>
-    </row>
-    <row r="24" spans="1:7" s="95" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="G22" s="195">
+        <f>SUM(G18:G21)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="196"/>
+    </row>
+    <row r="24" spans="1:8" s="95" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -8656,10 +9021,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
@@ -8671,25 +9037,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.53125" style="93" customWidth="1"/>
-    <col min="2" max="2" width="31.53125" style="93" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" style="93" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="93" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="93" customWidth="1"/>
-    <col min="4" max="4" width="22.46484375" style="93" customWidth="1"/>
-    <col min="5" max="6" width="14.796875" style="93" customWidth="1"/>
-    <col min="7" max="11" width="10.53125" style="93" customWidth="1"/>
-    <col min="12" max="12" width="13.73046875" style="93" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.19921875" style="93"/>
+    <col min="4" max="4" width="22.42578125" style="93" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="93" customWidth="1"/>
+    <col min="7" max="12" width="10.5703125" style="93" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
@@ -8702,9 +9068,10 @@
       <c r="H1" s="97"/>
       <c r="I1" s="97"/>
       <c r="J1" s="97"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="K1" s="97"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -8715,10 +9082,11 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -8731,9 +9099,10 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -8744,9 +9113,10 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.4">
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>85</v>
       </c>
@@ -8759,10 +9129,11 @@
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.4">
+      <c r="K5" s="46"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -8773,10 +9144,11 @@
       <c r="H6" s="314"/>
       <c r="I6" s="314"/>
       <c r="J6" s="314"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.4">
+      <c r="K6" s="314"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -8789,10 +9161,11 @@
       <c r="H7" s="314"/>
       <c r="I7" s="314"/>
       <c r="J7" s="314"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.4">
+      <c r="K7" s="314"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -8804,9 +9177,10 @@
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:12" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="L8" s="38"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="92" t="s">
         <v>128</v>
       </c>
@@ -8818,8 +9192,9 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>172</v>
       </c>
@@ -8831,8 +9206,9 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>103</v>
       </c>
@@ -8844,8 +9220,9 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.4">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>71</v>
       </c>
@@ -8860,8 +9237,9 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.4">
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>132</v>
       </c>
@@ -8876,8 +9254,9 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.4">
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>129</v>
       </c>
@@ -8892,8 +9271,9 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -8906,8 +9286,9 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="1:12" ht="30.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="157" t="s">
         <v>45</v>
       </c>
@@ -8916,20 +9297,21 @@
       <c r="D16" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="456" t="s">
+      <c r="E16" s="448" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="457"/>
-      <c r="G16" s="457"/>
-      <c r="H16" s="457"/>
-      <c r="I16" s="457"/>
-      <c r="J16" s="458"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="163" t="s">
+      <c r="F16" s="449"/>
+      <c r="G16" s="449"/>
+      <c r="H16" s="449"/>
+      <c r="I16" s="449"/>
+      <c r="J16" s="449"/>
+      <c r="K16" s="450"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="163" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
         <v>68</v>
       </c>
@@ -8957,13 +9339,16 @@
       <c r="I17" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="J17" s="106" t="s">
+      <c r="J17" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="111"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.4">
+      <c r="K17" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" s="19"/>
+      <c r="M17" s="111"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="160" t="s">
         <v>67</v>
       </c>
@@ -8979,11 +9364,12 @@
       <c r="G18" s="109"/>
       <c r="H18" s="109"/>
       <c r="I18" s="109"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="107"/>
-    </row>
-    <row r="19" spans="1:12" s="248" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="J18" s="109"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="107"/>
+    </row>
+    <row r="19" spans="1:13" s="248" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="249" t="s">
         <v>32</v>
       </c>
@@ -9011,79 +9397,86 @@
       <c r="I19" s="255">
         <v>1</v>
       </c>
-      <c r="J19" s="256">
+      <c r="J19" s="255">
         <v>1</v>
       </c>
-      <c r="K19" s="257"/>
-      <c r="L19" s="258">
+      <c r="K19" s="256">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.4">
+      <c r="L19" s="257"/>
+      <c r="M19" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
       <c r="B20" s="85"/>
       <c r="C20" s="205"/>
-      <c r="D20" s="445"/>
-      <c r="E20" s="446"/>
+      <c r="D20" s="437"/>
+      <c r="E20" s="438"/>
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="63"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.4">
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="63"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="50"/>
       <c r="B21" s="85"/>
       <c r="C21" s="205"/>
-      <c r="D21" s="445"/>
-      <c r="E21" s="446"/>
+      <c r="D21" s="437"/>
+      <c r="E21" s="438"/>
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="63"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="63"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="86"/>
       <c r="C22" s="206"/>
-      <c r="D22" s="447"/>
-      <c r="E22" s="448"/>
+      <c r="D22" s="439"/>
+      <c r="E22" s="440"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="55"/>
       <c r="I22" s="55"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="64"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="64"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="87"/>
       <c r="C23" s="207"/>
-      <c r="D23" s="447"/>
-      <c r="E23" s="449"/>
+      <c r="D23" s="439"/>
+      <c r="E23" s="441"/>
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
       <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="65"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J23" s="57"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="65"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="164" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="199"/>
       <c r="C24" s="208"/>
-      <c r="D24" s="444">
+      <c r="D24" s="436">
         <f>SUM(D20:D23)</f>
         <v>0</v>
       </c>
@@ -9101,24 +9494,29 @@
         <f>SUM(I20:I23)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="167">
+      <c r="J24" s="166">
         <f>SUM(J20:J23)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="202">
-        <f>SUM(L20:L23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K24" s="167">
+        <f>SUM(K20:K23)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="19"/>
+      <c r="M24" s="202">
+        <f>SUM(M20:M23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D25" s="97"/>
       <c r="G25" s="98"/>
       <c r="H25" s="98"/>
       <c r="I25" s="98"/>
       <c r="J25" s="98"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="98"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="164" t="s">
         <v>159</v>
       </c>
@@ -9130,18 +9528,20 @@
       <c r="G26" s="88"/>
       <c r="H26" s="88"/>
       <c r="I26" s="88"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="62"/>
-    </row>
-    <row r="27" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="62"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D27" s="97"/>
       <c r="G27" s="99"/>
       <c r="H27" s="99"/>
       <c r="I27" s="99"/>
       <c r="J27" s="99"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K27" s="99"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="164" t="s">
         <v>160</v>
       </c>
@@ -9153,18 +9553,20 @@
       <c r="G28" s="88"/>
       <c r="H28" s="88"/>
       <c r="I28" s="88"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="62"/>
-    </row>
-    <row r="29" spans="1:12" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J28" s="88"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="62"/>
+    </row>
+    <row r="29" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="97"/>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="99"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="99"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="164" t="s">
         <v>161</v>
       </c>
@@ -9188,22 +9590,26 @@
         <f>SUM(I26,I28)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="201">
+      <c r="J30" s="200">
         <f>SUM(J26,J28)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="202">
-        <f>SUM(L26,L28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" s="295" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="K30" s="201">
+        <f>SUM(K26,K28)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="202">
+        <f>SUM(M26,M28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="295" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E16:K16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C23">
@@ -9220,35 +9626,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.53125" customWidth="1"/>
-    <col min="2" max="2" width="40.796875" customWidth="1"/>
-    <col min="3" max="3" width="16.46484375" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="66" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
@@ -9259,8 +9665,9 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -9269,8 +9676,9 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>85</v>
       </c>
@@ -9281,8 +9689,9 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -9291,8 +9700,9 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -9303,8 +9713,9 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -9313,8 +9724,9 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="92" t="s">
         <v>128</v>
       </c>
@@ -9325,8 +9737,9 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>172</v>
       </c>
@@ -9337,8 +9750,9 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>127</v>
       </c>
@@ -9349,8 +9763,9 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" s="24" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>131</v>
       </c>
@@ -9360,9 +9775,10 @@
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" s="24" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>132</v>
       </c>
@@ -9372,10 +9788,11 @@
       <c r="E13" s="213"/>
       <c r="F13" s="213"/>
       <c r="G13" s="213"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="214"/>
-    </row>
-    <row r="14" spans="1:9" s="24" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="H13" s="213"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="214"/>
+    </row>
+    <row r="14" spans="1:10" s="24" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>74</v>
       </c>
@@ -9385,9 +9802,10 @@
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H14" s="23"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -9395,24 +9813,26 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="30.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="14"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="241"/>
       <c r="B16" s="242"/>
       <c r="C16" s="242"/>
       <c r="D16" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="463" t="s">
+      <c r="E16" s="455" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="463"/>
-      <c r="G16" s="463"/>
-      <c r="H16" s="464"/>
-      <c r="I16" s="243"/>
-    </row>
-    <row r="17" spans="1:9" s="15" customFormat="1" ht="26.65" x14ac:dyDescent="0.35">
+      <c r="F16" s="455"/>
+      <c r="G16" s="455"/>
+      <c r="H16" s="455"/>
+      <c r="I16" s="456"/>
+      <c r="J16" s="243"/>
+    </row>
+    <row r="17" spans="1:10" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A17" s="215" t="s">
         <v>12</v>
       </c>
@@ -9437,11 +9857,14 @@
       <c r="H17" s="216" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="217" t="s">
+      <c r="I17" s="216" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" s="217" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A18" s="218"/>
       <c r="B18" s="218"/>
       <c r="C18" s="277"/>
@@ -9460,9 +9883,12 @@
       <c r="H18" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="220"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I18" s="219" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="220"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>46</v>
       </c>
@@ -9473,9 +9899,10 @@
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:9" s="248" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" s="248" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A20" s="245" t="s">
         <v>105</v>
       </c>
@@ -9492,11 +9919,12 @@
       <c r="F20" s="246"/>
       <c r="G20" s="246"/>
       <c r="H20" s="246"/>
-      <c r="I20" s="247" t="s">
+      <c r="I20" s="246"/>
+      <c r="J20" s="247" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A21" s="68"/>
       <c r="B21" s="68"/>
       <c r="C21" s="178"/>
@@ -9505,9 +9933,10 @@
       <c r="F21" s="69"/>
       <c r="G21" s="69"/>
       <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A22" s="68"/>
       <c r="B22" s="68"/>
       <c r="C22" s="178"/>
@@ -9516,9 +9945,10 @@
       <c r="F22" s="69"/>
       <c r="G22" s="69"/>
       <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I22" s="69"/>
+      <c r="J22" s="70"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="68"/>
       <c r="B23" s="68"/>
       <c r="C23" s="178"/>
@@ -9527,9 +9957,10 @@
       <c r="F23" s="69"/>
       <c r="G23" s="69"/>
       <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A24" s="68"/>
       <c r="B24" s="68"/>
       <c r="C24" s="178"/>
@@ -9538,9 +9969,10 @@
       <c r="F24" s="69"/>
       <c r="G24" s="69"/>
       <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I24" s="69"/>
+      <c r="J24" s="70"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="223" t="s">
         <v>75</v>
       </c>
@@ -9566,9 +9998,13 @@
         <f>SUM(H21:H24)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="222"/>
-    </row>
-    <row r="26" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I25" s="221">
+        <f>SUM(I21:I24)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="222"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -9577,9 +10013,10 @@
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>47</v>
       </c>
@@ -9590,9 +10027,10 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="1:9" s="248" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" spans="1:10" s="248" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A28" s="245" t="s">
         <v>104</v>
       </c>
@@ -9611,11 +10049,14 @@
       <c r="H28" s="246">
         <v>5</v>
       </c>
-      <c r="I28" s="247" t="s">
+      <c r="I28" s="246">
+        <v>5</v>
+      </c>
+      <c r="J28" s="247" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A29" s="68"/>
       <c r="B29" s="68"/>
       <c r="C29" s="178"/>
@@ -9624,9 +10065,10 @@
       <c r="F29" s="69"/>
       <c r="G29" s="69"/>
       <c r="H29" s="69"/>
-      <c r="I29" s="78"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I29" s="69"/>
+      <c r="J29" s="78"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A30" s="68"/>
       <c r="B30" s="68"/>
       <c r="C30" s="178"/>
@@ -9635,9 +10077,10 @@
       <c r="F30" s="69"/>
       <c r="G30" s="69"/>
       <c r="H30" s="69"/>
-      <c r="I30" s="70"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I30" s="69"/>
+      <c r="J30" s="70"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A31" s="68"/>
       <c r="B31" s="68"/>
       <c r="C31" s="178"/>
@@ -9646,9 +10089,10 @@
       <c r="F31" s="69"/>
       <c r="G31" s="69"/>
       <c r="H31" s="69"/>
-      <c r="I31" s="70"/>
-    </row>
-    <row r="32" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A32" s="68"/>
       <c r="B32" s="68"/>
       <c r="C32" s="178"/>
@@ -9657,16 +10101,17 @@
       <c r="F32" s="69"/>
       <c r="G32" s="69"/>
       <c r="H32" s="69"/>
-      <c r="I32" s="70"/>
-    </row>
-    <row r="33" spans="1:9" ht="13.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="223" t="s">
         <v>76</v>
       </c>
       <c r="B33" s="223"/>
       <c r="C33" s="279"/>
       <c r="D33" s="285">
-        <f t="shared" ref="D33:H33" si="1">SUM(D29:D32)</f>
+        <f t="shared" ref="D33:I33" si="1">SUM(D29:D32)</f>
         <v>0</v>
       </c>
       <c r="E33" s="221">
@@ -9682,12 +10127,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="221">
+        <f t="shared" ref="H33" si="2">SUM(H29:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="221">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="222"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="J33" s="222"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -9696,9 +10145,10 @@
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
-      <c r="I34" s="21"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I34" s="32"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="226" t="s">
         <v>77</v>
       </c>
@@ -9709,11 +10159,11 @@
         <v>0</v>
       </c>
       <c r="E35" s="224">
-        <f t="shared" ref="E35:F35" si="2">SUM(E25+E33)</f>
+        <f t="shared" ref="E35:F35" si="3">SUM(E25+E33)</f>
         <v>0</v>
       </c>
       <c r="F35" s="224">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G35" s="224">
@@ -9724,9 +10174,13 @@
         <f>SUM(H25+H33)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="225"/>
-    </row>
-    <row r="36" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="224">
+        <f>SUM(I25+I33)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="225"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -9735,8 +10189,9 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>15</v>
       </c>
@@ -9747,9 +10202,10 @@
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="1:9" s="36" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
+    </row>
+    <row r="38" spans="1:10" s="36" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A38" s="245" t="s">
         <v>104</v>
       </c>
@@ -9764,9 +10220,10 @@
         <v>1000</v>
       </c>
       <c r="H38" s="246"/>
-      <c r="I38" s="247"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I38" s="246"/>
+      <c r="J38" s="247"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A39" s="68"/>
       <c r="B39" s="68"/>
       <c r="C39" s="178"/>
@@ -9775,9 +10232,10 @@
       <c r="F39" s="69"/>
       <c r="G39" s="69"/>
       <c r="H39" s="69"/>
-      <c r="I39" s="70"/>
-    </row>
-    <row r="40" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I39" s="69"/>
+      <c r="J39" s="70"/>
+    </row>
+    <row r="40" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A40" s="68"/>
       <c r="B40" s="68"/>
       <c r="C40" s="178"/>
@@ -9786,9 +10244,10 @@
       <c r="F40" s="69"/>
       <c r="G40" s="69"/>
       <c r="H40" s="69"/>
-      <c r="I40" s="70"/>
-    </row>
-    <row r="41" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I40" s="69"/>
+      <c r="J40" s="70"/>
+    </row>
+    <row r="41" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A41" s="68"/>
       <c r="B41" s="68"/>
       <c r="C41" s="178"/>
@@ -9797,9 +10256,10 @@
       <c r="F41" s="69"/>
       <c r="G41" s="69"/>
       <c r="H41" s="69"/>
-      <c r="I41" s="70"/>
-    </row>
-    <row r="42" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I41" s="69"/>
+      <c r="J41" s="70"/>
+    </row>
+    <row r="42" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A42" s="68"/>
       <c r="B42" s="68"/>
       <c r="C42" s="178"/>
@@ -9808,9 +10268,10 @@
       <c r="F42" s="69"/>
       <c r="G42" s="69"/>
       <c r="H42" s="69"/>
-      <c r="I42" s="70"/>
-    </row>
-    <row r="43" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I42" s="69"/>
+      <c r="J42" s="70"/>
+    </row>
+    <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A43" s="244" t="s">
         <v>42</v>
       </c>
@@ -9821,37 +10282,42 @@
       <c r="F43" s="80"/>
       <c r="G43" s="80"/>
       <c r="H43" s="80"/>
-      <c r="I43" s="81"/>
-    </row>
-    <row r="44" spans="1:9" ht="13.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I43" s="80"/>
+      <c r="J43" s="81"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="223" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="223"/>
       <c r="C44" s="279"/>
       <c r="D44" s="285">
-        <f t="shared" ref="D44:H44" si="3">SUM(D39:D43)</f>
+        <f t="shared" ref="D44:I44" si="4">SUM(D39:D43)</f>
         <v>0</v>
       </c>
       <c r="E44" s="221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F44" s="221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44" s="221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H44" s="221">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="222"/>
-    </row>
-    <row r="45" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+        <f t="shared" ref="H44" si="5">SUM(H39:H43)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="221">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="222"/>
+    </row>
+    <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -9860,9 +10326,10 @@
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
-    </row>
-    <row r="46" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I45" s="29"/>
+      <c r="J45" s="30"/>
+    </row>
+    <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>17</v>
       </c>
@@ -9873,9 +10340,10 @@
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
-      <c r="I46" s="27"/>
-    </row>
-    <row r="47" spans="1:9" s="248" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
+    </row>
+    <row r="47" spans="1:10" s="248" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A47" s="245" t="s">
         <v>105</v>
       </c>
@@ -9890,11 +10358,12 @@
       <c r="F47" s="246"/>
       <c r="G47" s="246"/>
       <c r="H47" s="246"/>
-      <c r="I47" s="247" t="s">
+      <c r="I47" s="246"/>
+      <c r="J47" s="247" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A48" s="68"/>
       <c r="B48" s="68"/>
       <c r="C48" s="178"/>
@@ -9903,9 +10372,10 @@
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
-      <c r="I48" s="70"/>
-    </row>
-    <row r="49" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I48" s="69"/>
+      <c r="J48" s="70"/>
+    </row>
+    <row r="49" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A49" s="68"/>
       <c r="B49" s="68"/>
       <c r="C49" s="178"/>
@@ -9914,9 +10384,10 @@
       <c r="F49" s="69"/>
       <c r="G49" s="69"/>
       <c r="H49" s="69"/>
-      <c r="I49" s="70"/>
-    </row>
-    <row r="50" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I49" s="69"/>
+      <c r="J49" s="70"/>
+    </row>
+    <row r="50" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A50" s="68"/>
       <c r="B50" s="68"/>
       <c r="C50" s="178"/>
@@ -9925,9 +10396,10 @@
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
       <c r="H50" s="69"/>
-      <c r="I50" s="70"/>
-    </row>
-    <row r="51" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I50" s="69"/>
+      <c r="J50" s="70"/>
+    </row>
+    <row r="51" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A51" s="68"/>
       <c r="B51" s="68"/>
       <c r="C51" s="178"/>
@@ -9936,9 +10408,10 @@
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
-      <c r="I51" s="70"/>
-    </row>
-    <row r="52" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="I51" s="69"/>
+      <c r="J51" s="70"/>
+    </row>
+    <row r="52" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A52" s="68"/>
       <c r="B52" s="68"/>
       <c r="C52" s="178"/>
@@ -9947,9 +10420,10 @@
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
       <c r="H52" s="69"/>
-      <c r="I52" s="70"/>
-    </row>
-    <row r="53" spans="1:9" ht="13.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I52" s="69"/>
+      <c r="J52" s="70"/>
+    </row>
+    <row r="53" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="223" t="s">
         <v>18</v>
       </c>
@@ -9960,11 +10434,11 @@
         <v>0</v>
       </c>
       <c r="E53" s="221">
-        <f t="shared" ref="E53:F53" si="4">SUM(E48:E52)</f>
+        <f t="shared" ref="E53:F53" si="6">SUM(E48:E52)</f>
         <v>0</v>
       </c>
       <c r="F53" s="221">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G53" s="221">
@@ -9975,9 +10449,13 @@
         <f>SUM(H48:H52)</f>
         <v>0</v>
       </c>
-      <c r="I53" s="222"/>
-    </row>
-    <row r="54" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I53" s="221">
+        <f>SUM(I48:I52)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="222"/>
+    </row>
+    <row r="54" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
@@ -9986,9 +10464,10 @@
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
-      <c r="I54" s="21"/>
-    </row>
-    <row r="55" spans="1:9" ht="13.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I54" s="32"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="226" t="s">
         <v>19</v>
       </c>
@@ -9999,11 +10478,11 @@
         <v>0</v>
       </c>
       <c r="E55" s="224">
-        <f t="shared" ref="E55:F55" si="5">SUM(E44+E53)</f>
+        <f t="shared" ref="E55:F55" si="7">SUM(E44+E53)</f>
         <v>0</v>
       </c>
       <c r="F55" s="224">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G55" s="224">
@@ -10014,19 +10493,24 @@
         <f>SUM(H44+H53)</f>
         <v>0</v>
       </c>
-      <c r="I55" s="225"/>
-    </row>
-    <row r="56" spans="1:9" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="462"/>
-      <c r="B56" s="462"/>
-      <c r="C56" s="462"/>
-      <c r="D56" s="462"/>
+      <c r="I55" s="224">
+        <f>SUM(I44+I53)</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="225"/>
+    </row>
+    <row r="56" spans="1:10" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="454"/>
+      <c r="B56" s="454"/>
+      <c r="C56" s="454"/>
+      <c r="D56" s="454"/>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H56" s="14"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="227" t="s">
         <v>78</v>
       </c>
@@ -10037,11 +10521,11 @@
         <v>0</v>
       </c>
       <c r="E57" s="228">
-        <f t="shared" ref="E57:F57" si="6">SUM(E35,E55)</f>
+        <f t="shared" ref="E57:F57" si="8">SUM(E35,E55)</f>
         <v>0</v>
       </c>
       <c r="F57" s="228">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G57" s="228">
@@ -10052,9 +10536,13 @@
         <f>SUM(H35,H55)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="229"/>
-    </row>
-    <row r="58" spans="1:9" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="I57" s="228">
+        <f>SUM(I35,I55)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="229"/>
+    </row>
+    <row r="58" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
@@ -10063,13 +10551,14 @@
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
-      <c r="I58" s="21"/>
-    </row>
-    <row r="59" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:9" s="295" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="I58" s="32"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:10" s="295" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="294"/>
     </row>
-    <row r="61" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -10078,11 +10567,12 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E16:I16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C24 C28:C32 C38:C43 C47:C52">
@@ -10102,28 +10592,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.796875" customWidth="1"/>
-    <col min="2" max="3" width="24.46484375" customWidth="1"/>
-    <col min="4" max="4" width="57.19921875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.649999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.649999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>106</v>
       </c>
@@ -10133,7 +10623,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -10141,80 +10631,80 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="465"/>
-      <c r="C5" s="465"/>
+      <c r="B5" s="457"/>
+      <c r="C5" s="457"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="465"/>
-      <c r="C7" s="465"/>
+      <c r="B7" s="457"/>
+      <c r="C7" s="457"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
     </row>
-    <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="462" t="s">
+    <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="454" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="462"/>
-      <c r="C10" s="462"/>
-      <c r="D10" s="462"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="462" t="s">
+      <c r="B10" s="454"/>
+      <c r="C10" s="454"/>
+      <c r="D10" s="454"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="454" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="462"/>
-      <c r="C11" s="462"/>
-      <c r="D11" s="462"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="462"/>
-      <c r="B12" s="462"/>
-      <c r="C12" s="462"/>
-      <c r="D12" s="462"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="462"/>
-      <c r="B13" s="462"/>
-      <c r="C13" s="462"/>
-      <c r="D13" s="462"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="462" t="s">
+      <c r="B11" s="454"/>
+      <c r="C11" s="454"/>
+      <c r="D11" s="454"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="454"/>
+      <c r="B12" s="454"/>
+      <c r="C12" s="454"/>
+      <c r="D12" s="454"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="454"/>
+      <c r="B13" s="454"/>
+      <c r="C13" s="454"/>
+      <c r="D13" s="454"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="454" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="462"/>
-      <c r="C14" s="462"/>
-      <c r="D14" s="462"/>
-    </row>
-    <row r="15" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="462"/>
-      <c r="B15" s="462"/>
-      <c r="C15" s="462"/>
-      <c r="D15" s="462"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="B14" s="454"/>
+      <c r="C14" s="454"/>
+      <c r="D14" s="454"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="454"/>
+      <c r="B15" s="454"/>
+      <c r="C15" s="454"/>
+      <c r="D15" s="454"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A17" s="235" t="s">
         <v>89</v>
       </c>
@@ -10228,7 +10718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="296">
         <v>43374</v>
       </c>
@@ -10236,7 +10726,7 @@
       <c r="C18" s="184"/>
       <c r="D18" s="82"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="230">
         <v>43405</v>
       </c>
@@ -10244,7 +10734,7 @@
       <c r="C19" s="184"/>
       <c r="D19" s="82"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="230">
         <v>43435</v>
       </c>
@@ -10252,7 +10742,7 @@
       <c r="C20" s="184"/>
       <c r="D20" s="82"/>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="230">
         <v>43466</v>
       </c>
@@ -10260,7 +10750,7 @@
       <c r="C21" s="184"/>
       <c r="D21" s="82"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="230">
         <v>43497</v>
       </c>
@@ -10268,7 +10758,7 @@
       <c r="C22" s="184"/>
       <c r="D22" s="82"/>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="237">
         <v>43525</v>
       </c>
@@ -10276,7 +10766,7 @@
       <c r="C23" s="184"/>
       <c r="D23" s="83"/>
     </row>
-    <row r="24" spans="1:4" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="300" t="s">
         <v>110</v>
       </c>
@@ -10290,7 +10780,7 @@
       </c>
       <c r="D24" s="301"/>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="297" t="s">
         <v>90</v>
       </c>
@@ -10304,7 +10794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="238">
         <v>43556</v>
       </c>
@@ -10312,7 +10802,7 @@
       <c r="C26" s="184"/>
       <c r="D26" s="239"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="231">
         <v>43647</v>
       </c>
@@ -10320,7 +10810,7 @@
       <c r="C27" s="184"/>
       <c r="D27" s="82"/>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="231">
         <v>43739</v>
       </c>
@@ -10328,7 +10818,7 @@
       <c r="C28" s="184"/>
       <c r="D28" s="82"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="231">
         <v>43831</v>
       </c>
@@ -10336,7 +10826,7 @@
       <c r="C29" s="184"/>
       <c r="D29" s="82"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="231">
         <v>43922</v>
       </c>
@@ -10344,7 +10834,7 @@
       <c r="C30" s="184"/>
       <c r="D30" s="82"/>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="231">
         <v>44013</v>
       </c>
@@ -10352,7 +10842,7 @@
       <c r="C31" s="184"/>
       <c r="D31" s="82"/>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="231">
         <v>44105</v>
       </c>
@@ -10360,7 +10850,7 @@
       <c r="C32" s="184"/>
       <c r="D32" s="82"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="231">
         <v>44197</v>
       </c>
@@ -10368,7 +10858,7 @@
       <c r="C33" s="184"/>
       <c r="D33" s="82"/>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="231">
         <v>44287</v>
       </c>
@@ -10376,7 +10866,7 @@
       <c r="C34" s="184"/>
       <c r="D34" s="82"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="231">
         <v>44378</v>
       </c>
@@ -10384,7 +10874,7 @@
       <c r="C35" s="184"/>
       <c r="D35" s="83"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="231">
         <v>44470</v>
       </c>
@@ -10392,7 +10882,7 @@
       <c r="C36" s="184"/>
       <c r="D36" s="83"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="231">
         <v>44562</v>
       </c>
@@ -10400,7 +10890,7 @@
       <c r="C37" s="184"/>
       <c r="D37" s="83"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="231">
         <v>44652</v>
       </c>
@@ -10408,7 +10898,7 @@
       <c r="C38" s="184"/>
       <c r="D38" s="83"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="231">
         <v>44743</v>
       </c>
@@ -10416,7 +10906,7 @@
       <c r="C39" s="184"/>
       <c r="D39" s="83"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="231">
         <v>44835</v>
       </c>
@@ -10424,7 +10914,7 @@
       <c r="C40" s="184"/>
       <c r="D40" s="83"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="231">
         <v>44927</v>
       </c>
@@ -10432,7 +10922,7 @@
       <c r="C41" s="184"/>
       <c r="D41" s="83"/>
     </row>
-    <row r="42" spans="1:4" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="231">
         <v>45017</v>
       </c>
@@ -10440,55 +10930,87 @@
       <c r="C42" s="184"/>
       <c r="D42" s="83"/>
     </row>
-    <row r="43" spans="1:4" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="232" t="s">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="231">
+        <v>45108</v>
+      </c>
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="83"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="231">
+        <v>45200</v>
+      </c>
+      <c r="B44" s="184"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="83"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="231">
+        <v>45292</v>
+      </c>
+      <c r="B45" s="184"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="83"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="231">
+        <v>45383</v>
+      </c>
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="83"/>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="233">
-        <f>SUM(B26:B42)</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="233">
-        <f>SUM(C26:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="234"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="A47" s="19"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="19"/>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="B47" s="233">
+        <f>SUM(B26:B46)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="233">
+        <f>SUM(C26:C46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="234"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
     </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="19"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10511,9 +11033,9 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>111</v>
       </c>
@@ -10521,7 +11043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="93" t="s">
         <v>97</v>
       </c>
@@ -10529,7 +11051,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="93" t="s">
         <v>98</v>
       </c>
@@ -10537,22 +11059,22 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="93" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="93" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="93" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="49"/>
     </row>
   </sheetData>
